--- a/LaserCo2Board BOM.xlsx
+++ b/LaserCo2Board BOM.xlsx
@@ -43,19 +43,19 @@
   </si>
   <si>
     <t>0603</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>LI0603G221R-10</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Laird-Signal Integrity Products</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>LED</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -86,61 +86,61 @@
   </si>
   <si>
     <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Ceramic Capacitor</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Aluminum Capacitor</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>220Ω@100MHz, 700mA</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Ferrite bead</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Crystal</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>RTC Crystal</t>
   </si>
   <si>
     <t>32.768KHz, 7pF</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>5032</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>25MHz, 18pF</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/7B-25.000MAAJ-T/887-1112-2-ND/2118796</t>
   </si>
   <si>
     <t>7B-25.000MAAJ-T</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>TXC CORPORATION</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>9HT10-32.768KDZY-T</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/9HT10-32.768KDZY-T/887-1506-2-ND/2690359</t>
@@ -162,30 +162,30 @@
   </si>
   <si>
     <t>Resistor</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/311020029.pdf</t>
   </si>
   <si>
     <t>2-SMD</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/LI0603G221R-10/240-2368-1-ND/806728</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>2V, 3mA, Red</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>2V, 3mA, Green</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>2V, 3mA, Blue</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>L1</t>
@@ -276,19 +276,16 @@
   </si>
   <si>
     <t>4P Connector</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>6.3 x 7.7mm</t>
   </si>
   <si>
-    <t>C5,C6</t>
-  </si>
-  <si>
     <t>http://www.digikey.jp/product-detail/ja/UWT1V101MCL1GS/493-2203-1-ND/590178</t>
   </si>
   <si>
@@ -332,11 +329,11 @@
   </si>
   <si>
     <t>USB Type B Connector</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Connector</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>0R, 1/10W</t>
@@ -380,53 +377,53 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>SW2</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>DIP Switch</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/3010010P1.pdf</t>
   </si>
   <si>
     <t>DG De Yi Long Electronics Hardware Limited</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>MS-22D18 G2</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>MS-22D18</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
     <t>BLM21PG221SN1D</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Murata Electronics North America</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/murata-electronics-north-america/BLM21PG221SN1D/490-1054-2-ND/364909</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>220Ω@100MHz, 2A</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -443,7 +440,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -460,7 +457,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -477,15 +474,15 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>74HC08A</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>TSSOP-14</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -502,29 +499,29 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/on-semiconductor/MC74HC08ADTR2G/MC74HC08ADTR2GOSTR-ND/919179</t>
   </si>
   <si>
     <t>MC74HC08ADTR2G</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>MCP4725</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>SOT-23-6</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
     <t>MCP4725A0T-E/CH</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/microchip-technology/MCP4725A0T-E-CH/MCP4725A0T-E-CHTR-ND/1818537</t>
@@ -544,7 +541,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -561,7 +558,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -578,7 +575,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -595,63 +592,63 @@
       </rPr>
       <t>4,D5,D8</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Q1,Q2,Q3</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Fairchild Semiconductor</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/fairchild-semiconductor/BSS138/BSS138CT-ND/244294</t>
   </si>
   <si>
     <t>BSS138</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>BSS138</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ESD</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/bourns-inc/CG0603MLC-05E/CG0603MLC-05ETR-ND/2538084</t>
   </si>
   <si>
     <t>VR1,VR2</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>CG0603MLC-05E</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Bourns Inc.</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>VARISTOR 0603</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R35</t>
   </si>
   <si>
     <t>1k5, 1/2W, 5%</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R36</t>
   </si>
   <si>
     <t>390R, 1/10W, 5%</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R2,R4</t>
@@ -667,110 +664,122 @@
   </si>
   <si>
     <t>R16,R17,R18,R25,R26,R45</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>75R, 1/10W, 5%</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R34</t>
   </si>
   <si>
     <t>R1,R3,R5,R12,R13,R14,R15,R19,R20,R21,R22,R23,R24,R27,R29,R30,R33,R37,R38,R42</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>3P Connector</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>B4B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>B3B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>J11,J12,J14</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>J10,J13</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>J5,J6,J7,J8,J9,J15,J16,J17,J18,J19,J20</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C1,C2,C9,C10</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C15,C16</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C19,C22</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C3,C4,C7,C8,C23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Any</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C24,C30</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C11,C12,C13,C14,C17,C18,C20,C21,C26,C27,C28,C29,C31,C33,C36,C38</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C35</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C32,C34,C37</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>C25</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R6,R7</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R32</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R28,R31,R43</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>R8,R9,R10,R11</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C5,C6,C39</t>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="51">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1483,262 +1492,346 @@
   </borders>
   <cellStyleXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,12 +1876,54 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1825,6 +1960,12 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,1357 +2092,1225 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="87" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="87" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="231">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="229" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="231" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="499" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="231" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="159" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="231" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="499">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="499" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="231" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="159" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="231" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="229" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4119,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4173,7 +4182,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="31">
         <v>1</v>
@@ -4186,25 +4195,25 @@
     <row r="4" spans="1:12">
       <c r="A4" s="24"/>
       <c r="B4" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="111" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="111" t="s">
-        <v>124</v>
       </c>
       <c r="D4" s="111" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="22">
         <v>1</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="17"/>
@@ -4224,7 +4233,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="64">
         <v>1</v>
@@ -4270,7 +4279,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="70">
         <v>1</v>
@@ -4283,25 +4292,25 @@
     </row>
     <row r="8" spans="1:12" s="111" customFormat="1">
       <c r="B8" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="111" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="111" t="s">
-        <v>129</v>
       </c>
       <c r="D8" s="111" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="111">
         <v>1</v>
       </c>
       <c r="H8" s="111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4318,7 +4327,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="56">
         <v>1</v>
@@ -4356,25 +4365,25 @@
     </row>
     <row r="11" spans="1:12" s="111" customFormat="1">
       <c r="B11" s="122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="90" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="111">
         <v>3</v>
       </c>
       <c r="H11" s="111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="54" customFormat="1">
@@ -4402,25 +4411,25 @@
     </row>
     <row r="13" spans="1:12" s="111" customFormat="1">
       <c r="B13" s="112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="111" t="s">
-        <v>112</v>
-      </c>
       <c r="F13" s="113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="111">
         <v>1</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="111" customFormat="1">
@@ -4431,31 +4440,31 @@
     </row>
     <row r="15" spans="1:12" s="111" customFormat="1">
       <c r="B15" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:12" s="111" customFormat="1">
       <c r="B16" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="111">
         <v>2</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="54" customFormat="1">
@@ -4500,25 +4509,25 @@
     </row>
     <row r="20" spans="1:12" s="111" customFormat="1">
       <c r="B20" s="112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="111">
         <v>1</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4626,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -4649,7 +4658,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="26">
         <v>1</v>
@@ -4670,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="26">
         <v>1</v>
@@ -4692,10 +4701,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>6</v>
@@ -4704,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -4712,10 +4721,10 @@
     </row>
     <row r="35" spans="1:8" s="87" customFormat="1">
       <c r="B35" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>6</v>
@@ -4724,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G35" s="87">
         <v>2</v>
@@ -4733,10 +4742,10 @@
     <row r="36" spans="1:8" ht="40.5">
       <c r="A36" s="26"/>
       <c r="B36" s="112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>6</v>
@@ -4745,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -4754,10 +4763,10 @@
     <row r="37" spans="1:8">
       <c r="A37" s="26"/>
       <c r="B37" s="112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="89" t="s">
         <v>6</v>
@@ -4766,7 +4775,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G37" s="87">
         <v>4</v>
@@ -4774,11 +4783,11 @@
     </row>
     <row r="38" spans="1:8" s="26" customFormat="1">
       <c r="B38" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>90</v>
-      </c>
       <c r="D38" s="53" t="s">
         <v>6</v>
       </c>
@@ -4786,7 +4795,7 @@
         <v>6</v>
       </c>
       <c r="F38" s="127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G38" s="32">
         <v>2</v>
@@ -4794,10 +4803,10 @@
     </row>
     <row r="39" spans="1:8" s="87" customFormat="1">
       <c r="B39" s="112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="79" t="s">
         <v>6</v>
@@ -4806,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="F39" s="127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G39" s="81">
         <v>1</v>
@@ -4815,10 +4824,10 @@
     <row r="40" spans="1:8">
       <c r="A40" s="26"/>
       <c r="B40" s="112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>6</v>
@@ -4827,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="127" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" s="49">
         <v>5</v>
@@ -4836,19 +4845,19 @@
     <row r="41" spans="1:8">
       <c r="A41" s="26"/>
       <c r="B41" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="71" t="s">
-        <v>86</v>
-      </c>
       <c r="D41" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G41" s="49">
         <v>3</v>
@@ -4867,11 +4876,11 @@
     <row r="44" spans="1:8">
       <c r="A44" s="26"/>
       <c r="B44" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>84</v>
-      </c>
       <c r="D44" s="48" t="s">
         <v>6</v>
       </c>
@@ -4879,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="36">
         <v>1</v>
@@ -4908,13 +4917,13 @@
         <v>6</v>
       </c>
       <c r="F47" s="127" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="G47" s="74">
         <v>2</v>
       </c>
       <c r="H47" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4928,10 +4937,10 @@
     </row>
     <row r="50" spans="1:8" s="26" customFormat="1">
       <c r="B50" s="112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="94" t="s">
         <v>6</v>
@@ -4940,7 +4949,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G50" s="92">
         <v>2</v>
@@ -4948,10 +4957,10 @@
     </row>
     <row r="51" spans="1:8" s="26" customFormat="1">
       <c r="B51" s="112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>6</v>
@@ -4960,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="F51" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G51" s="52">
         <v>2</v>
@@ -4968,19 +4977,19 @@
     </row>
     <row r="52" spans="1:8" s="111" customFormat="1">
       <c r="B52" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="117" t="s">
         <v>157</v>
-      </c>
-      <c r="C52" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="117" t="s">
-        <v>158</v>
       </c>
       <c r="G52" s="97">
         <v>1</v>
@@ -4988,10 +4997,10 @@
     </row>
     <row r="53" spans="1:8" s="54" customFormat="1">
       <c r="B53" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" s="96" t="s">
         <v>6</v>
@@ -5000,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G53" s="97">
         <v>1</v>
@@ -5008,10 +5017,10 @@
     </row>
     <row r="54" spans="1:8" s="111" customFormat="1">
       <c r="B54" s="112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54" s="108" t="s">
         <v>6</v>
@@ -5020,7 +5029,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G54" s="97">
         <v>1</v>
@@ -5028,10 +5037,10 @@
     </row>
     <row r="55" spans="1:8" s="26" customFormat="1">
       <c r="B55" s="112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="100" t="s">
         <v>6</v>
@@ -5040,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G55" s="98">
         <v>6</v>
@@ -5048,10 +5057,10 @@
     </row>
     <row r="56" spans="1:8" s="26" customFormat="1">
       <c r="B56" s="112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>6</v>
@@ -5060,7 +5069,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="82">
         <v>1</v>
@@ -5068,10 +5077,10 @@
     </row>
     <row r="57" spans="1:8" s="98" customFormat="1">
       <c r="B57" s="112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="103" t="s">
         <v>6</v>
@@ -5080,7 +5089,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G57" s="101">
         <v>1</v>
@@ -5089,10 +5098,10 @@
     <row r="58" spans="1:8">
       <c r="A58" s="26"/>
       <c r="B58" s="112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="106" t="s">
         <v>6</v>
@@ -5101,7 +5110,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G58" s="91">
         <v>3</v>
@@ -5109,10 +5118,10 @@
     </row>
     <row r="59" spans="1:8" s="26" customFormat="1" ht="40.5">
       <c r="B59" s="112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="108" t="s">
         <v>6</v>
@@ -5121,7 +5130,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G59" s="73">
         <v>20</v>
@@ -5129,10 +5138,10 @@
     </row>
     <row r="60" spans="1:8" s="104" customFormat="1">
       <c r="B60" s="112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="108" t="s">
         <v>6</v>
@@ -5141,7 +5150,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G60" s="109">
         <v>2</v>
@@ -5149,10 +5158,10 @@
     </row>
     <row r="61" spans="1:8" s="26" customFormat="1">
       <c r="B61" s="112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="84" t="s">
         <v>6</v>
@@ -5161,7 +5170,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G61" s="85">
         <v>4</v>
@@ -5169,10 +5178,10 @@
     </row>
     <row r="62" spans="1:8" s="111" customFormat="1">
       <c r="B62" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="108" t="s">
         <v>6</v>
@@ -5181,7 +5190,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" s="97">
         <v>1</v>
@@ -5196,12 +5205,12 @@
     </row>
     <row r="64" spans="1:8">
       <c r="B64" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="42" t="s">
         <v>56</v>
@@ -5213,7 +5222,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G65" s="44">
         <v>1</v>
@@ -5234,7 +5243,7 @@
         <v>77</v>
       </c>
       <c r="F66" s="116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G66" s="37">
         <v>11</v>
@@ -5242,17 +5251,17 @@
     </row>
     <row r="67" spans="2:8" s="111" customFormat="1">
       <c r="B67" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="97"/>
       <c r="D67" s="111" t="s">
         <v>76</v>
       </c>
       <c r="E67" s="111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F67" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G67" s="97">
         <v>2</v>
@@ -5267,10 +5276,10 @@
         <v>76</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F68" s="119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G68" s="41">
         <v>3</v>
@@ -5284,7 +5293,7 @@
       <c r="G69" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H47" r:id="rId2"/>
@@ -5303,7 +5312,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5316,7 +5325,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LaserCo2Board BOM.xlsx
+++ b/LaserCo2Board BOM.xlsx
@@ -4129,7 +4129,7 @@
   <dimension ref="A2:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4920,7 +4920,7 @@
         <v>179</v>
       </c>
       <c r="G47" s="74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="78" t="s">
         <v>81</v>

--- a/LaserCo2Board BOM.xlsx
+++ b/LaserCo2Board BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
   <si>
     <t>Part / Value</t>
   </si>
@@ -43,19 +43,19 @@
   </si>
   <si>
     <t>0603</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>LI0603G221R-10</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Laird-Signal Integrity Products</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>LED</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -86,61 +86,61 @@
   </si>
   <si>
     <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Ceramic Capacitor</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Aluminum Capacitor</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>220Ω@100MHz, 700mA</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Ferrite bead</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Crystal</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>RTC Crystal</t>
   </si>
   <si>
     <t>32.768KHz, 7pF</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>5032</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>25MHz, 18pF</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/7B-25.000MAAJ-T/887-1112-2-ND/2118796</t>
   </si>
   <si>
     <t>7B-25.000MAAJ-T</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>TXC CORPORATION</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>9HT10-32.768KDZY-T</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/9HT10-32.768KDZY-T/887-1506-2-ND/2690359</t>
@@ -162,30 +162,30 @@
   </si>
   <si>
     <t>Resistor</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/311020029.pdf</t>
   </si>
   <si>
     <t>2-SMD</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/LI0603G221R-10/240-2368-1-ND/806728</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>2V, 3mA, Red</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>2V, 3mA, Green</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>2V, 3mA, Blue</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>L1</t>
@@ -227,9 +227,6 @@
     <t>STM32F205RBT6</t>
   </si>
   <si>
-    <t>TR1</t>
-  </si>
-  <si>
     <t>A4982</t>
   </si>
   <si>
@@ -276,11 +273,11 @@
   </si>
   <si>
     <t>4P Connector</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>6.3 x 7.7mm</t>
@@ -329,11 +326,11 @@
   </si>
   <si>
     <t>USB Type B Connector</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Connector</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>0R, 1/10W</t>
@@ -346,9 +343,6 @@
   </si>
   <si>
     <t>470R, 1/10W, 5%</t>
-  </si>
-  <si>
-    <t>1k, 1/10W, 5%</t>
   </si>
   <si>
     <t>2k7, 1/10W, 5%</t>
@@ -377,53 +371,53 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>SW2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>DIP Switch</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/3010010P1.pdf</t>
   </si>
   <si>
     <t>DG De Yi Long Electronics Hardware Limited</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MS-22D18 G2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MS-22D18</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
     <t>BLM21PG221SN1D</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Murata Electronics North America</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/murata-electronics-north-america/BLM21PG221SN1D/490-1054-2-ND/364909</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>220Ω@100MHz, 2A</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -440,7 +434,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -457,7 +451,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -474,15 +468,15 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>74HC08A</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>TSSOP-14</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -499,29 +493,29 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/on-semiconductor/MC74HC08ADTR2G/MC74HC08ADTR2GOSTR-ND/919179</t>
   </si>
   <si>
     <t>MC74HC08ADTR2G</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MCP4725</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>SOT-23-6</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
     <t>MCP4725A0T-E/CH</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/microchip-technology/MCP4725A0T-E-CH/MCP4725A0T-E-CHTR-ND/1818537</t>
@@ -541,7 +535,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -558,7 +552,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -575,7 +569,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -592,63 +586,59 @@
       </rPr>
       <t>4,D5,D8</t>
     </r>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>Q1,Q2,Q3</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Fairchild Semiconductor</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/fairchild-semiconductor/BSS138/BSS138CT-ND/244294</t>
   </si>
   <si>
     <t>BSS138</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>BSS138</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ESD</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/bourns-inc/CG0603MLC-05E/CG0603MLC-05ETR-ND/2538084</t>
   </si>
   <si>
     <t>VR1,VR2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>CG0603MLC-05E</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Bourns Inc.</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>VARISTOR 0603</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>R35</t>
   </si>
   <si>
     <t>1k5, 1/2W, 5%</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>R36</t>
   </si>
   <si>
     <t>390R, 1/10W, 5%</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>R2,R4</t>
@@ -657,121 +647,168 @@
     <t>R44</t>
   </si>
   <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R39,R40</t>
-  </si>
-  <si>
     <t>R16,R17,R18,R25,R26,R45</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>75R, 1/10W, 5%</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R1,R3,R5,R12,R13,R14,R15,R19,R20,R21,R22,R23,R24,R27,R29,R30,R33,R37,R38,R42</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>3P Connector</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>B4B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>B3B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>J11,J12,J14</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>J10,J13</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>J5,J6,J7,J8,J9,J15,J16,J17,J18,J19,J20</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C1,C2,C9,C10</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C15,C16</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C19,C22</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C3,C4,C7,C8,C23</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Any</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C24,C30</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C11,C12,C13,C14,C17,C18,C20,C21,C26,C27,C28,C29,C31,C33,C36,C38</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C35</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C32,C34,C37</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C25</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>R6,R7</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>R32</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>R28,R31,R43</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>R8,R9,R10,R11</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>C5,C6,C39</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>1k5, 1/10W, 5%</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>R34,R39,R40</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>TR1,TR2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Q1,Q2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>R27,R41</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>R1,R3,R5,R12,R13,R14,R15,R19,R20,R21,R22,R23,R24,R29,R30,R37,R38,R42</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <t>J5,J6,J7,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J8,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J9,J15,J16,J17,J18,J19,J20</t>
+    </r>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="52">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1492,262 +1529,478 @@
   </borders>
   <cellStyleXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1792,12 +2045,54 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,130 +2129,292 @@
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -2008,6 +2465,12 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2044,18 +2507,96 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2092,6 +2633,12 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2344,6 +2891,138 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2378,940 +3057,298 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="87" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="87" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="229" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="231" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="499" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="231" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="229" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="159" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="231" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="499" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="231" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="159" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="231" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="229" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="499" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="513">
@@ -4126,16 +4163,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L69"/>
+  <dimension ref="A2:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="112" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="111" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
@@ -4145,7 +4182,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4164,25 +4201,25 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="24"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="119" t="s">
-        <v>132</v>
+        <v>73</v>
+      </c>
+      <c r="F3" s="117" t="s">
+        <v>130</v>
       </c>
       <c r="G3" s="31">
         <v>1</v>
@@ -4194,127 +4231,127 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="24"/>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="117" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="119" t="s">
-        <v>124</v>
       </c>
       <c r="G4" s="22">
         <v>1</v>
       </c>
-      <c r="H4" s="63" t="s">
-        <v>125</v>
+      <c r="H4" s="62" t="s">
+        <v>123</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="64">
+      <c r="F5" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="63">
         <v>1</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="D6" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="F6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="G6" s="67">
+        <v>2</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="68">
-        <v>2</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="112" t="s">
+      <c r="C7" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="E7" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="70">
+      <c r="F7" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="69">
         <v>1</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="69" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" s="111" customFormat="1">
-      <c r="B8" s="112" t="s">
+    <row r="8" spans="1:12" s="110" customFormat="1">
+      <c r="B8" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="128" t="s">
+      <c r="G8" s="110">
+        <v>1</v>
+      </c>
+      <c r="H8" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="111">
-        <v>1</v>
-      </c>
-      <c r="H8" s="111" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="111" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="55" t="s">
@@ -4326,8 +4363,8 @@
       <c r="E9" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="110" t="s">
-        <v>106</v>
+      <c r="F9" s="109" t="s">
+        <v>104</v>
       </c>
       <c r="G9" s="56">
         <v>1</v>
@@ -4339,55 +4376,55 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="66">
-        <v>1</v>
-      </c>
-      <c r="H10" s="66" t="s">
+      <c r="F10" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="65">
+        <v>2</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" s="111" customFormat="1">
-      <c r="B11" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="90" t="s">
+    <row r="11" spans="1:12" s="110" customFormat="1">
+      <c r="B11" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>139</v>
+      <c r="D11" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>136</v>
       </c>
       <c r="F11" s="129" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="111">
-        <v>3</v>
-      </c>
-      <c r="H11" s="111" t="s">
-        <v>138</v>
+        <v>174</v>
+      </c>
+      <c r="G11" s="110">
+        <v>2</v>
+      </c>
+      <c r="H11" s="110" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="54" customFormat="1">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="111" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -4409,69 +4446,69 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="111" customFormat="1">
-      <c r="B13" s="112" t="s">
+    <row r="13" spans="1:12" s="110" customFormat="1">
+      <c r="B13" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="113" t="s">
+      <c r="E13" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="110">
+        <v>1</v>
+      </c>
+      <c r="H13" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="111">
-        <v>1</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="111" customFormat="1">
-      <c r="B14" s="112"/>
+    </row>
+    <row r="14" spans="1:12" s="110" customFormat="1">
+      <c r="B14" s="111"/>
       <c r="C14" s="41"/>
-      <c r="F14" s="113"/>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" s="111" customFormat="1">
+      <c r="F14" s="112"/>
+      <c r="H14" s="64"/>
+    </row>
+    <row r="15" spans="1:12" s="110" customFormat="1">
       <c r="B15" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" s="110" customFormat="1">
+      <c r="B16" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" s="111" customFormat="1">
-      <c r="B16" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="130" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="111">
+      <c r="F16" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="110">
         <v>2</v>
       </c>
-      <c r="H16" s="65" t="s">
-        <v>142</v>
+      <c r="H16" s="64" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="54" customFormat="1">
-      <c r="B17" s="114"/>
-      <c r="C17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="25" t="s">
@@ -4483,7 +4520,7 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="111" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4507,27 +4544,27 @@
       <c r="J19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" s="111" customFormat="1">
-      <c r="B20" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="108" t="s">
+    <row r="20" spans="1:12" s="110" customFormat="1">
+      <c r="B20" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="D20" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="110">
+        <v>1</v>
+      </c>
+      <c r="H20" s="64" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="111">
-        <v>1</v>
-      </c>
-      <c r="H20" s="65" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4548,7 +4585,7 @@
       <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:12" s="26" customFormat="1">
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="111" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -4591,7 +4628,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="26"/>
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="111" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -4622,7 +4659,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="111" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4634,8 +4671,8 @@
       <c r="E29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="120" t="s">
-        <v>135</v>
+      <c r="F29" s="118" t="s">
+        <v>133</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -4645,7 +4682,7 @@
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" s="26" customFormat="1">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="111" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -4657,8 +4694,8 @@
       <c r="E30" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="120" t="s">
-        <v>134</v>
+      <c r="F30" s="118" t="s">
+        <v>132</v>
       </c>
       <c r="G30" s="26">
         <v>1</v>
@@ -4666,7 +4703,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:12" s="26" customFormat="1">
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="111" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -4678,8 +4715,8 @@
       <c r="E31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="120" t="s">
-        <v>133</v>
+      <c r="F31" s="118" t="s">
+        <v>131</v>
       </c>
       <c r="G31" s="26">
         <v>1</v>
@@ -4687,7 +4724,7 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:12" s="26" customFormat="1">
-      <c r="B32" s="112"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -4700,11 +4737,11 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" s="112" t="s">
-        <v>92</v>
+      <c r="B34" s="111" t="s">
+        <v>91</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>6</v>
@@ -4712,19 +4749,19 @@
       <c r="E34" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="127" t="s">
-        <v>170</v>
+      <c r="F34" s="125" t="s">
+        <v>161</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="87" customFormat="1">
-      <c r="B35" s="112" t="s">
-        <v>93</v>
+    <row r="35" spans="1:8" s="86" customFormat="1">
+      <c r="B35" s="111" t="s">
+        <v>92</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>6</v>
@@ -4732,29 +4769,29 @@
       <c r="E35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="87">
+      <c r="F35" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="86">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="40.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="80" t="s">
+      <c r="B36" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="C36" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="115" t="s">
-        <v>171</v>
+      <c r="F36" s="114" t="s">
+        <v>162</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -4762,31 +4799,31 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="26"/>
-      <c r="B37" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="89" t="s">
+      <c r="B37" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37" s="87">
+      <c r="F37" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="86">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="26" customFormat="1">
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="61" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>89</v>
       </c>
       <c r="D38" s="53" t="s">
         <v>6</v>
@@ -4794,40 +4831,40 @@
       <c r="E38" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="127" t="s">
-        <v>166</v>
+      <c r="F38" s="125" t="s">
+        <v>157</v>
       </c>
       <c r="G38" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="87" customFormat="1">
-      <c r="B39" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="79" t="s">
+    <row r="39" spans="1:8" s="86" customFormat="1">
+      <c r="B39" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="127" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="81">
+      <c r="F39" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="26"/>
-      <c r="B40" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="71" t="s">
+      <c r="B40" s="111" t="s">
         <v>85</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>84</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>6</v>
@@ -4835,8 +4872,8 @@
       <c r="E40" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="127" t="s">
-        <v>168</v>
+      <c r="F40" s="125" t="s">
+        <v>159</v>
       </c>
       <c r="G40" s="49">
         <v>5</v>
@@ -4844,20 +4881,20 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="26"/>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="71" t="s">
-        <v>85</v>
-      </c>
       <c r="D41" s="46" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="117" t="s">
-        <v>173</v>
+      <c r="F41" s="115" t="s">
+        <v>164</v>
       </c>
       <c r="G41" s="49">
         <v>3</v>
@@ -4865,21 +4902,21 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="26"/>
-      <c r="F42" s="121"/>
+      <c r="F42" s="119"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="121"/>
+      <c r="F43" s="119"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="26"/>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>82</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>83</v>
       </c>
       <c r="D44" s="48" t="s">
         <v>6</v>
@@ -4887,80 +4924,80 @@
       <c r="E44" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="127" t="s">
-        <v>174</v>
+      <c r="F44" s="125" t="s">
+        <v>165</v>
       </c>
       <c r="G44" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="F45" s="121"/>
+      <c r="F45" s="119"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="121"/>
+      <c r="F46" s="119"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="73">
+        <v>3</v>
+      </c>
+      <c r="H47" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="74">
-        <v>3</v>
-      </c>
-      <c r="H47" s="78" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="F48" s="121"/>
+      <c r="F48" s="119"/>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="124"/>
+      <c r="F49" s="122"/>
     </row>
     <row r="50" spans="1:8" s="26" customFormat="1">
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="26" customFormat="1">
+      <c r="B51" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="126" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="26" customFormat="1">
-      <c r="B51" s="112" t="s">
-        <v>98</v>
-      </c>
       <c r="C51" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>6</v>
@@ -4968,332 +5005,312 @@
       <c r="E51" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="117" t="s">
+      <c r="F51" s="115" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="54" customFormat="1">
+      <c r="B52" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="110" customFormat="1">
+      <c r="B53" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="26" customFormat="1">
+      <c r="B54" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="26" customFormat="1">
+      <c r="B55" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="97" customFormat="1">
+      <c r="B56" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="26"/>
+      <c r="B57" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="26" customFormat="1" ht="40.5">
+      <c r="B58" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="103" customFormat="1">
+      <c r="B59" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="115" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="26" customFormat="1">
+      <c r="B60" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="110" customFormat="1">
+      <c r="B61" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="12"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="G64" s="44">
+        <v>1</v>
+      </c>
+      <c r="H64" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="27">
+      <c r="B65" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" s="110" customFormat="1">
+      <c r="B66" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="96"/>
+      <c r="D66" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="111" customFormat="1">
-      <c r="B52" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="54" customFormat="1">
-      <c r="B53" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="G53" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="111" customFormat="1">
-      <c r="B54" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="26" customFormat="1">
-      <c r="B55" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="G55" s="98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="26" customFormat="1">
-      <c r="B56" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="98" customFormat="1">
-      <c r="B57" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="117" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="26"/>
-      <c r="B58" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" s="91">
+      <c r="G67" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="26" customFormat="1" ht="40.5">
-      <c r="B59" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="104" customFormat="1">
-      <c r="B60" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" s="109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="26" customFormat="1">
-      <c r="B61" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="127" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="111" customFormat="1">
-      <c r="B62" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G62" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="12"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="112" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="44">
-        <v>1</v>
-      </c>
-      <c r="H65" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="27">
-      <c r="B66" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" s="111" customFormat="1">
-      <c r="B67" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="97"/>
-      <c r="D67" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="111" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="G67" s="97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="G68" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="C69" s="97"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="41"/>
+    <row r="68" spans="2:7">
+      <c r="C68" s="96"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="14"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H47" r:id="rId2"/>
@@ -5312,7 +5329,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5325,7 +5342,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LaserCo2Board BOM.xlsx
+++ b/LaserCo2Board BOM.xlsx
@@ -692,10 +692,6 @@
   </si>
   <si>
     <t>C24,C30</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>C11,C12,C13,C14,C17,C18,C20,C21,C26,C27,C28,C29,C31,C33,C36,C38</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -780,6 +776,10 @@
       </rPr>
       <t>J9,J15,J16,J17,J18,J19,J20</t>
     </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>C11,C12,C13,C14,C17,C18,C20,C21,C26,C27,C28,C29,C31,C33,C36,C38</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -3060,7 +3060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3091,16 +3091,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="87" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
@@ -3136,19 +3130,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159" applyFill="1">
       <alignment vertical="center"/>
@@ -3171,9 +3153,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
@@ -3192,9 +3171,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3292,9 +3268,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
@@ -3303,51 +3276,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="499" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="231" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="159" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="231" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="159" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="229" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="499" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="229" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4165,24 +4138,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="111" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="102" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="102" customWidth="1"/>
     <col min="7" max="7" width="6.875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4194,333 +4167,334 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="107" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="24"/>
-      <c r="B3" s="111" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>1</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="24"/>
-      <c r="B4" s="111" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="55">
         <v>1</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="59">
         <v>2</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="61">
         <v>1</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" s="110" customFormat="1">
-      <c r="B8" s="111" t="s">
+      <c r="J7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" s="101" customFormat="1">
+      <c r="B8" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="101">
         <v>1</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="101" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="49">
         <v>1</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="128" t="s">
+      <c r="F10" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="57">
+        <v>2</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" s="101" customFormat="1">
+      <c r="B11" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G11" s="101">
         <v>2</v>
       </c>
-      <c r="H10" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" s="110" customFormat="1">
-      <c r="B11" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="129" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="110">
+      <c r="H11" s="101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="47" customFormat="1">
+      <c r="B12" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="38">
+        <v>1</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="101" customFormat="1">
+      <c r="B13" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="101">
+        <v>1</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="101" customFormat="1">
+      <c r="B14" s="102"/>
+      <c r="C14" s="35"/>
+      <c r="F14" s="103"/>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" s="101" customFormat="1">
+      <c r="B15" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="F15" s="102"/>
+    </row>
+    <row r="16" spans="1:12" s="101" customFormat="1">
+      <c r="B16" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="101">
         <v>2</v>
       </c>
-      <c r="H11" s="110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="54" customFormat="1">
-      <c r="B12" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="44">
-        <v>1</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="110" customFormat="1">
-      <c r="B13" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="110">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="110" customFormat="1">
-      <c r="B14" s="111"/>
-      <c r="C14" s="41"/>
-      <c r="F14" s="112"/>
-      <c r="H14" s="64"/>
-    </row>
-    <row r="15" spans="1:12" s="110" customFormat="1">
-      <c r="B15" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" s="110" customFormat="1">
-      <c r="B16" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="110">
-        <v>2</v>
-      </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="54" customFormat="1">
-      <c r="B17" s="113"/>
-      <c r="C17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="59"/>
+    <row r="17" spans="1:12" s="47" customFormat="1">
+      <c r="B17" s="104"/>
+      <c r="C17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="100"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="11"/>
       <c r="H18" s="3"/>
-      <c r="J18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="102" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4532,121 +4506,121 @@
       <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="35" t="s">
         <v>49</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" s="110" customFormat="1">
-      <c r="B20" s="111" t="s">
+      <c r="J19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" s="101" customFormat="1">
+      <c r="B20" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="107" t="s">
+      <c r="E20" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="110">
+      <c r="G20" s="101">
         <v>1</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="56" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" s="26" customFormat="1">
-      <c r="B22" s="25" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" s="24" customFormat="1">
+      <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" s="26" customFormat="1">
-      <c r="B23" s="111" t="s">
+      <c r="F22" s="17"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" s="24" customFormat="1">
+      <c r="B23" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="24">
         <v>1</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="26"/>
-      <c r="B26" s="111" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>1</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4654,12 +4628,12 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="102" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4671,545 +4645,545 @@
       <c r="E29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="118" t="s">
+      <c r="F29" s="109" t="s">
         <v>133</v>
       </c>
       <c r="G29">
         <v>6</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="J29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" s="26" customFormat="1">
-      <c r="B30" s="111" t="s">
+      <c r="J29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" s="24" customFormat="1">
+      <c r="B30" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="118" t="s">
+      <c r="F30" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="24">
         <v>1</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:12" s="26" customFormat="1">
-      <c r="B31" s="111" t="s">
+    <row r="31" spans="1:12" s="24" customFormat="1">
+      <c r="B31" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="118" t="s">
+      <c r="F31" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="24">
         <v>1</v>
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:12" s="26" customFormat="1">
-      <c r="B32" s="111"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="12"/>
+    <row r="32" spans="1:12" s="24" customFormat="1">
+      <c r="B32" s="102"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="114"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="125" t="s">
+      <c r="F34" s="115" t="s">
         <v>161</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="86" customFormat="1">
-      <c r="B35" s="111" t="s">
+    <row r="35" spans="1:8" s="78" customFormat="1">
+      <c r="B35" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="125" t="s">
+      <c r="F35" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="86">
+      <c r="G35" s="78">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="40.5">
-      <c r="A36" s="26"/>
-      <c r="B36" s="111" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="114" t="s">
-        <v>162</v>
+      <c r="F36" s="116" t="s">
+        <v>177</v>
       </c>
       <c r="G36">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="26"/>
-      <c r="B37" s="111" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="88" t="s">
+      <c r="E37" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="125" t="s">
+      <c r="F37" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="78">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="26" customFormat="1">
-      <c r="B38" s="111" t="s">
+    <row r="38" spans="1:8" s="24" customFormat="1">
+      <c r="B38" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="125" t="s">
+      <c r="F38" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="86" customFormat="1">
-      <c r="B39" s="111" t="s">
+    <row r="39" spans="1:8" s="78" customFormat="1">
+      <c r="B39" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="125" t="s">
+      <c r="F39" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="24"/>
+      <c r="B40" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="115" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="24"/>
+      <c r="B41" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G41" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="24"/>
+      <c r="F42" s="118"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="118"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="24"/>
+      <c r="B44" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="26"/>
-      <c r="B40" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="46" t="s">
+    <row r="45" spans="1:8">
+      <c r="F45" s="118"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="118"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E47" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="26"/>
-      <c r="B41" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="46" t="s">
+      <c r="F47" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="65">
+        <v>3</v>
+      </c>
+      <c r="H47" s="69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="F48" s="118"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="119"/>
+    </row>
+    <row r="50" spans="1:8" s="24" customFormat="1">
+      <c r="B50" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="115" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="49">
+      <c r="E50" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="24" customFormat="1">
+      <c r="B51" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="26"/>
-      <c r="F42" s="119"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="119"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="26"/>
-      <c r="B44" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="57" t="s">
+    <row r="52" spans="1:8" s="47" customFormat="1">
+      <c r="B52" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="101" customFormat="1">
+      <c r="B53" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="24" customFormat="1">
+      <c r="B54" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="24" customFormat="1">
+      <c r="B55" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="89" customFormat="1">
+      <c r="B56" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="24"/>
+      <c r="B57" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="24" customFormat="1" ht="40.5">
+      <c r="B58" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="95" customFormat="1">
+      <c r="B59" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="24" customFormat="1">
+      <c r="B60" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D60" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E60" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="F45" s="119"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="119"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="74" t="s">
+      <c r="F60" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="101" customFormat="1">
+      <c r="B61" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="74" t="s">
+      <c r="E61" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" s="73">
-        <v>3</v>
-      </c>
-      <c r="H47" s="77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="F48" s="119"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="122"/>
-    </row>
-    <row r="50" spans="1:8" s="26" customFormat="1">
-      <c r="B50" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="26" customFormat="1">
-      <c r="B51" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="115" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="54" customFormat="1">
-      <c r="B52" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="115" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="110" customFormat="1">
-      <c r="B53" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="26" customFormat="1">
-      <c r="B54" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="26" customFormat="1">
-      <c r="B55" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="115" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="97" customFormat="1">
-      <c r="B56" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="115" t="s">
-        <v>167</v>
-      </c>
-      <c r="G56" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="26"/>
-      <c r="B57" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="26" customFormat="1" ht="40.5">
-      <c r="B58" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" s="72">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="103" customFormat="1">
-      <c r="B59" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="26" customFormat="1">
-      <c r="B60" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="110" customFormat="1">
-      <c r="B61" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="115" t="s">
+      <c r="F61" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="G61" s="96">
+      <c r="G61" s="88">
         <v>1</v>
       </c>
     </row>
@@ -5217,97 +5191,97 @@
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="12"/>
+      <c r="F62" s="114"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G64" s="38">
         <v>1</v>
       </c>
-      <c r="H64" s="42" t="s">
+      <c r="H64" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="27">
-      <c r="B65" s="111" t="s">
+      <c r="B65" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="60" t="s">
+      <c r="C65" s="32"/>
+      <c r="D65" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F65" s="130" t="s">
-        <v>177</v>
-      </c>
-      <c r="G65" s="37">
+      <c r="F65" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="32">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:7" s="110" customFormat="1">
-      <c r="B66" s="111" t="s">
+    <row r="66" spans="2:7" s="101" customFormat="1">
+      <c r="B66" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="110" t="s">
+      <c r="C66" s="88"/>
+      <c r="D66" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="110" t="s">
+      <c r="E66" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="117" t="s">
+      <c r="F66" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="96">
+      <c r="G66" s="88">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="111" t="s">
+      <c r="B67" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="60" t="s">
+      <c r="C67" s="32"/>
+      <c r="D67" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="117" t="s">
+      <c r="F67" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="G67" s="41">
+      <c r="G67" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="C68" s="96"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="41"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14"/>

--- a/LaserCo2Board BOM.xlsx
+++ b/LaserCo2Board BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="180">
   <si>
     <t>Part / Value</t>
   </si>
@@ -731,19 +731,7 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>R34,R39,R40</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>TR1,TR2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>Q1,Q2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>R27,R41</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -780,6 +768,26 @@
   </si>
   <si>
     <t>C11,C12,C13,C14,C17,C18,C20,C21,C26,C27,C28,C29,C31,C33,C36,C38</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>47R, 1/10W, 5%</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>R39,R40</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>R34</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>TR1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>R41</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -3297,9 +3305,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3322,6 +3327,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="513">
@@ -4136,10 +4144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L68"/>
+  <dimension ref="A2:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4361,11 +4369,11 @@
       <c r="E10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="112" t="s">
-        <v>172</v>
+      <c r="F10" s="121" t="s">
+        <v>178</v>
       </c>
       <c r="G10" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>41</v>
@@ -4386,8 +4394,8 @@
       <c r="E11" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="113" t="s">
-        <v>173</v>
+      <c r="F11" s="112" t="s">
+        <v>171</v>
       </c>
       <c r="G11" s="101">
         <v>2</v>
@@ -4702,7 +4710,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="114"/>
+      <c r="F32" s="113"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8">
@@ -4723,7 +4731,7 @@
       <c r="E34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="114" t="s">
         <v>161</v>
       </c>
       <c r="G34">
@@ -4743,7 +4751,7 @@
       <c r="E35" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="115" t="s">
+      <c r="F35" s="114" t="s">
         <v>158</v>
       </c>
       <c r="G35" s="78">
@@ -4764,8 +4772,8 @@
       <c r="E36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="116" t="s">
-        <v>177</v>
+      <c r="F36" s="115" t="s">
+        <v>174</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -4785,7 +4793,7 @@
       <c r="E37" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="114" t="s">
         <v>156</v>
       </c>
       <c r="G37" s="78">
@@ -4805,7 +4813,7 @@
       <c r="E38" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="114" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="30">
@@ -4825,7 +4833,7 @@
       <c r="E39" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="114" t="s">
         <v>162</v>
       </c>
       <c r="G39" s="72">
@@ -4846,7 +4854,7 @@
       <c r="E40" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="115" t="s">
+      <c r="F40" s="114" t="s">
         <v>159</v>
       </c>
       <c r="G40" s="43">
@@ -4867,7 +4875,7 @@
       <c r="E41" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="117" t="s">
+      <c r="F41" s="116" t="s">
         <v>163</v>
       </c>
       <c r="G41" s="43">
@@ -4876,13 +4884,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="24"/>
-      <c r="F42" s="118"/>
+      <c r="F42" s="117"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="118"/>
+      <c r="F43" s="117"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="24"/>
@@ -4898,7 +4906,7 @@
       <c r="E44" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F44" s="114" t="s">
         <v>164</v>
       </c>
       <c r="G44" s="31">
@@ -4906,13 +4914,13 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="F45" s="118"/>
+      <c r="F45" s="117"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="118"/>
+      <c r="F46" s="117"/>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" s="67" t="s">
@@ -4927,7 +4935,7 @@
       <c r="E47" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="115" t="s">
+      <c r="F47" s="114" t="s">
         <v>169</v>
       </c>
       <c r="G47" s="65">
@@ -4938,13 +4946,13 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="F48" s="118"/>
+      <c r="F48" s="117"/>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="119"/>
+      <c r="F49" s="118"/>
     </row>
     <row r="50" spans="1:8" s="24" customFormat="1">
       <c r="B50" s="102" t="s">
@@ -4959,7 +4967,7 @@
       <c r="E50" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="120" t="s">
+      <c r="F50" s="119" t="s">
         <v>165</v>
       </c>
       <c r="G50" s="83">
@@ -4979,157 +4987,157 @@
       <c r="E51" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="117" t="s">
-        <v>171</v>
+      <c r="F51" s="116" t="s">
+        <v>176</v>
       </c>
       <c r="G51" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="47" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="101" customFormat="1">
       <c r="B52" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="47" customFormat="1">
+      <c r="B53" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C53" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="117" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="101" customFormat="1">
-      <c r="B53" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="117" t="s">
-        <v>146</v>
+      <c r="D53" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="116" t="s">
+        <v>179</v>
       </c>
       <c r="G53" s="88">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="24" customFormat="1">
+    <row r="54" spans="1:8" s="101" customFormat="1">
       <c r="B54" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="117" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="89">
-        <v>6</v>
+      <c r="D54" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="88">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="24" customFormat="1">
       <c r="B55" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="24" customFormat="1">
+      <c r="B56" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C56" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="117" t="s">
+      <c r="D56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="73">
+      <c r="G56" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="89" customFormat="1">
-      <c r="B56" s="102" t="s">
+    <row r="57" spans="1:8" s="89" customFormat="1">
+      <c r="B57" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="93" t="s">
+      <c r="C57" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="117" t="s">
+      <c r="D57" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="92">
+      <c r="G57" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="24"/>
-      <c r="B57" s="102" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="24"/>
+      <c r="B58" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="96" t="s">
+      <c r="C58" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="115" t="s">
+      <c r="D58" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="82">
+      <c r="G58" s="82">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="24" customFormat="1" ht="40.5">
-      <c r="B58" s="102" t="s">
+    <row r="59" spans="1:8" s="24" customFormat="1" ht="40.5">
+      <c r="B59" s="102" t="s">
         <v>102</v>
-      </c>
-      <c r="C58" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="116" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" s="64">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="95" customFormat="1">
-      <c r="B59" s="102" t="s">
-        <v>103</v>
       </c>
       <c r="C59" s="98" t="s">
         <v>88</v>
@@ -5140,148 +5148,168 @@
       <c r="E59" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="117" t="s">
+      <c r="F59" s="115" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="95" customFormat="1">
+      <c r="B60" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="100">
+      <c r="G60" s="100">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="24" customFormat="1">
-      <c r="B60" s="102" t="s">
+    <row r="61" spans="1:8" s="24" customFormat="1">
+      <c r="B61" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C61" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="115" t="s">
+      <c r="D61" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="G60" s="76">
+      <c r="G61" s="76">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="101" customFormat="1">
-      <c r="B61" s="102" t="s">
+    <row r="62" spans="1:8" s="101" customFormat="1">
+      <c r="B62" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C62" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="117" t="s">
+      <c r="D62" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="G61" s="88">
+      <c r="G62" s="88">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="C62" s="4"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="114"/>
-      <c r="H62" s="10"/>
-    </row>
     <row r="63" spans="1:8">
-      <c r="B63" s="23" t="s">
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="113"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="102" t="s">
+    <row r="65" spans="2:8">
+      <c r="B65" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C65" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="108" t="s">
+      <c r="D65" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="G64" s="38">
+      <c r="G65" s="38">
         <v>1</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H65" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="27">
-      <c r="B65" s="102" t="s">
+    <row r="66" spans="2:8" ht="27">
+      <c r="B66" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="52" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E66" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F65" s="121" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="32">
+      <c r="F66" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" s="32">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:7" s="101" customFormat="1">
-      <c r="B66" s="102" t="s">
+    <row r="67" spans="2:8" s="101" customFormat="1">
+      <c r="B67" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="101" t="s">
+      <c r="C67" s="88"/>
+      <c r="D67" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="101" t="s">
+      <c r="E67" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="108" t="s">
+      <c r="F67" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="88">
+      <c r="G67" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="102" t="s">
+    <row r="68" spans="2:8">
+      <c r="B68" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="52" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E68" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="108" t="s">
+      <c r="F68" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="G67" s="35">
+      <c r="G68" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
-      <c r="C68" s="88"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="35"/>
+    <row r="69" spans="2:8">
+      <c r="C69" s="88"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14"/>

--- a/LaserCo2Board BOM.xlsx
+++ b/LaserCo2Board BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14808" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="184">
   <si>
     <t>Part / Value</t>
   </si>
@@ -43,19 +43,19 @@
   </si>
   <si>
     <t>0603</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>LI0603G221R-10</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Laird-Signal Integrity Products</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>LED</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -86,61 +86,61 @@
   </si>
   <si>
     <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Ceramic Capacitor</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Aluminum Capacitor</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>220Ω@100MHz, 700mA</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Ferrite bead</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Crystal</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>RTC Crystal</t>
   </si>
   <si>
     <t>32.768KHz, 7pF</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>5032</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>25MHz, 18pF</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/7B-25.000MAAJ-T/887-1112-2-ND/2118796</t>
   </si>
   <si>
     <t>7B-25.000MAAJ-T</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>TXC CORPORATION</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>9HT10-32.768KDZY-T</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/9HT10-32.768KDZY-T/887-1506-2-ND/2690359</t>
@@ -162,30 +162,30 @@
   </si>
   <si>
     <t>Resistor</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/311020029.pdf</t>
   </si>
   <si>
     <t>2-SMD</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/LI0603G221R-10/240-2368-1-ND/806728</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>2V, 3mA, Red</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>2V, 3mA, Green</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>2V, 3mA, Blue</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>L1</t>
@@ -273,11 +273,11 @@
   </si>
   <si>
     <t>4P Connector</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>6.3 x 7.7mm</t>
@@ -326,11 +326,11 @@
   </si>
   <si>
     <t>USB Type B Connector</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Connector</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>0R, 1/10W</t>
@@ -371,53 +371,53 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>SW2</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>DIP Switch</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/3010010P1.pdf</t>
   </si>
   <si>
     <t>DG De Yi Long Electronics Hardware Limited</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>MS-22D18 G2</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>MS-22D18</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
     <t>BLM21PG221SN1D</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Murata Electronics North America</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/murata-electronics-north-america/BLM21PG221SN1D/490-1054-2-ND/364909</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>220Ω@100MHz, 2A</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -434,7 +434,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -451,7 +451,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -468,15 +468,15 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>74HC08A</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>TSSOP-14</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -493,29 +493,29 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/on-semiconductor/MC74HC08ADTR2G/MC74HC08ADTR2GOSTR-ND/919179</t>
   </si>
   <si>
     <t>MC74HC08ADTR2G</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>MCP4725</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>SOT-23-6</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
     <t>MCP4725A0T-E/CH</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/microchip-technology/MCP4725A0T-E-CH/MCP4725A0T-E-CHTR-ND/1818537</t>
@@ -535,7 +535,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -552,7 +552,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -569,7 +569,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -586,59 +586,59 @@
       </rPr>
       <t>4,D5,D8</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Fairchild Semiconductor</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/fairchild-semiconductor/BSS138/BSS138CT-ND/244294</t>
   </si>
   <si>
     <t>BSS138</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>BSS138</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ESD</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/bourns-inc/CG0603MLC-05E/CG0603MLC-05ETR-ND/2538084</t>
   </si>
   <si>
     <t>VR1,VR2</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>CG0603MLC-05E</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Bourns Inc.</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>VARISTOR 0603</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R35</t>
   </si>
   <si>
     <t>1k5, 1/2W, 5%</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R36</t>
   </si>
   <si>
     <t>390R, 1/10W, 5%</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R2,R4</t>
@@ -648,95 +648,95 @@
   </si>
   <si>
     <t>R16,R17,R18,R25,R26,R45</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>3P Connector</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>B4B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>B3B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>J11,J12,J14</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>J10,J13</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C1,C2,C9,C10</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C15,C16</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C19,C22</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C3,C4,C7,C8,C23</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Any</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C24,C30</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C35</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C32,C34,C37</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C25</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R6,R7</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R32</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R28,R31,R43</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R8,R9,R10,R11</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C5,C6,C39</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>1k5, 1/10W, 5%</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Q1,Q2</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R1,R3,R5,R12,R13,R14,R15,R19,R20,R21,R22,R23,R24,R29,R30,R37,R38,R42</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -764,43 +764,63 @@
       </rPr>
       <t>J9,J15,J16,J17,J18,J19,J20</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>C11,C12,C13,C14,C17,C18,C20,C21,C26,C27,C28,C29,C31,C33,C36,C38</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>47R, 1/10W, 5%</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R39,R40</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R34</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>TR1</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>R41</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Heat Sink</t>
+  </si>
+  <si>
+    <t>Shenzhen S-mart Electronics Co.,Ltd</t>
+  </si>
+  <si>
+    <t>Heatsink 8.8*8.8*5mm with 3m thermal conductivity double-sided tape</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1535,264 +1555,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="513">
+  <cellStyleXfs count="937">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1837,12 +1941,54 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1879,6 +2025,12 @@
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,1717 +2157,3222 @@
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="231">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="229" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="231" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="231" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="231" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="231" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="231" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="231" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="159" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="159" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="499" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="597" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="513">
+  <cellStyles count="937">
     <cellStyle name="20% - アクセント 1" xfId="64" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1 10" xfId="513"/>
     <cellStyle name="20% - アクセント 1 2" xfId="2"/>
     <cellStyle name="20% - アクセント 1 3" xfId="105"/>
     <cellStyle name="20% - アクセント 1 3 2" xfId="147"/>
     <cellStyle name="20% - アクセント 1 3 2 2" xfId="233"/>
     <cellStyle name="20% - アクセント 1 3 2 2 2" xfId="445"/>
+    <cellStyle name="20% - アクセント 1 3 2 2 2 2" xfId="883"/>
+    <cellStyle name="20% - アクセント 1 3 2 2 3" xfId="671"/>
     <cellStyle name="20% - アクセント 1 3 2 3" xfId="359"/>
+    <cellStyle name="20% - アクセント 1 3 2 3 2" xfId="797"/>
+    <cellStyle name="20% - アクセント 1 3 2 4" xfId="585"/>
     <cellStyle name="20% - アクセント 1 3 3" xfId="275"/>
     <cellStyle name="20% - アクセント 1 3 3 2" xfId="487"/>
+    <cellStyle name="20% - アクセント 1 3 3 2 2" xfId="925"/>
+    <cellStyle name="20% - アクセント 1 3 3 3" xfId="713"/>
     <cellStyle name="20% - アクセント 1 3 4" xfId="191"/>
     <cellStyle name="20% - アクセント 1 3 4 2" xfId="403"/>
+    <cellStyle name="20% - アクセント 1 3 4 2 2" xfId="841"/>
+    <cellStyle name="20% - アクセント 1 3 4 3" xfId="629"/>
     <cellStyle name="20% - アクセント 1 3 5" xfId="317"/>
+    <cellStyle name="20% - アクセント 1 3 5 2" xfId="755"/>
+    <cellStyle name="20% - アクセント 1 3 6" xfId="543"/>
     <cellStyle name="20% - アクセント 1 4" xfId="89"/>
     <cellStyle name="20% - アクセント 1 4 2" xfId="131"/>
     <cellStyle name="20% - アクセント 1 4 2 2" xfId="217"/>
     <cellStyle name="20% - アクセント 1 4 2 2 2" xfId="429"/>
+    <cellStyle name="20% - アクセント 1 4 2 2 2 2" xfId="867"/>
+    <cellStyle name="20% - アクセント 1 4 2 2 3" xfId="655"/>
     <cellStyle name="20% - アクセント 1 4 2 3" xfId="343"/>
+    <cellStyle name="20% - アクセント 1 4 2 3 2" xfId="781"/>
+    <cellStyle name="20% - アクセント 1 4 2 4" xfId="569"/>
     <cellStyle name="20% - アクセント 1 4 3" xfId="259"/>
     <cellStyle name="20% - アクセント 1 4 3 2" xfId="471"/>
+    <cellStyle name="20% - アクセント 1 4 3 2 2" xfId="909"/>
+    <cellStyle name="20% - アクセント 1 4 3 3" xfId="697"/>
     <cellStyle name="20% - アクセント 1 4 4" xfId="175"/>
     <cellStyle name="20% - アクセント 1 4 4 2" xfId="387"/>
+    <cellStyle name="20% - アクセント 1 4 4 2 2" xfId="825"/>
+    <cellStyle name="20% - アクセント 1 4 4 3" xfId="613"/>
     <cellStyle name="20% - アクセント 1 4 5" xfId="301"/>
+    <cellStyle name="20% - アクセント 1 4 5 2" xfId="739"/>
+    <cellStyle name="20% - アクセント 1 4 6" xfId="527"/>
     <cellStyle name="20% - アクセント 1 5" xfId="117"/>
     <cellStyle name="20% - アクセント 1 5 2" xfId="203"/>
     <cellStyle name="20% - アクセント 1 5 2 2" xfId="415"/>
+    <cellStyle name="20% - アクセント 1 5 2 2 2" xfId="853"/>
+    <cellStyle name="20% - アクセント 1 5 2 3" xfId="641"/>
     <cellStyle name="20% - アクセント 1 5 3" xfId="329"/>
+    <cellStyle name="20% - アクセント 1 5 3 2" xfId="767"/>
+    <cellStyle name="20% - アクセント 1 5 4" xfId="555"/>
     <cellStyle name="20% - アクセント 1 6" xfId="161"/>
     <cellStyle name="20% - アクセント 1 6 2" xfId="373"/>
+    <cellStyle name="20% - アクセント 1 6 2 2" xfId="811"/>
+    <cellStyle name="20% - アクセント 1 6 3" xfId="599"/>
     <cellStyle name="20% - アクセント 1 7" xfId="245"/>
     <cellStyle name="20% - アクセント 1 7 2" xfId="457"/>
+    <cellStyle name="20% - アクセント 1 7 2 2" xfId="895"/>
+    <cellStyle name="20% - アクセント 1 7 3" xfId="683"/>
     <cellStyle name="20% - アクセント 1 8" xfId="287"/>
+    <cellStyle name="20% - アクセント 1 8 2" xfId="725"/>
     <cellStyle name="20% - アクセント 1 9" xfId="501"/>
     <cellStyle name="20% - アクセント 2" xfId="68" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2 10" xfId="515"/>
     <cellStyle name="20% - アクセント 2 2" xfId="3"/>
     <cellStyle name="20% - アクセント 2 3" xfId="107"/>
     <cellStyle name="20% - アクセント 2 3 2" xfId="149"/>
     <cellStyle name="20% - アクセント 2 3 2 2" xfId="235"/>
     <cellStyle name="20% - アクセント 2 3 2 2 2" xfId="447"/>
+    <cellStyle name="20% - アクセント 2 3 2 2 2 2" xfId="885"/>
+    <cellStyle name="20% - アクセント 2 3 2 2 3" xfId="673"/>
     <cellStyle name="20% - アクセント 2 3 2 3" xfId="361"/>
+    <cellStyle name="20% - アクセント 2 3 2 3 2" xfId="799"/>
+    <cellStyle name="20% - アクセント 2 3 2 4" xfId="587"/>
     <cellStyle name="20% - アクセント 2 3 3" xfId="277"/>
     <cellStyle name="20% - アクセント 2 3 3 2" xfId="489"/>
+    <cellStyle name="20% - アクセント 2 3 3 2 2" xfId="927"/>
+    <cellStyle name="20% - アクセント 2 3 3 3" xfId="715"/>
     <cellStyle name="20% - アクセント 2 3 4" xfId="193"/>
     <cellStyle name="20% - アクセント 2 3 4 2" xfId="405"/>
+    <cellStyle name="20% - アクセント 2 3 4 2 2" xfId="843"/>
+    <cellStyle name="20% - アクセント 2 3 4 3" xfId="631"/>
     <cellStyle name="20% - アクセント 2 3 5" xfId="319"/>
+    <cellStyle name="20% - アクセント 2 3 5 2" xfId="757"/>
+    <cellStyle name="20% - アクセント 2 3 6" xfId="545"/>
     <cellStyle name="20% - アクセント 2 4" xfId="91"/>
     <cellStyle name="20% - アクセント 2 4 2" xfId="133"/>
     <cellStyle name="20% - アクセント 2 4 2 2" xfId="219"/>
     <cellStyle name="20% - アクセント 2 4 2 2 2" xfId="431"/>
+    <cellStyle name="20% - アクセント 2 4 2 2 2 2" xfId="869"/>
+    <cellStyle name="20% - アクセント 2 4 2 2 3" xfId="657"/>
     <cellStyle name="20% - アクセント 2 4 2 3" xfId="345"/>
+    <cellStyle name="20% - アクセント 2 4 2 3 2" xfId="783"/>
+    <cellStyle name="20% - アクセント 2 4 2 4" xfId="571"/>
     <cellStyle name="20% - アクセント 2 4 3" xfId="261"/>
     <cellStyle name="20% - アクセント 2 4 3 2" xfId="473"/>
+    <cellStyle name="20% - アクセント 2 4 3 2 2" xfId="911"/>
+    <cellStyle name="20% - アクセント 2 4 3 3" xfId="699"/>
     <cellStyle name="20% - アクセント 2 4 4" xfId="177"/>
     <cellStyle name="20% - アクセント 2 4 4 2" xfId="389"/>
+    <cellStyle name="20% - アクセント 2 4 4 2 2" xfId="827"/>
+    <cellStyle name="20% - アクセント 2 4 4 3" xfId="615"/>
     <cellStyle name="20% - アクセント 2 4 5" xfId="303"/>
+    <cellStyle name="20% - アクセント 2 4 5 2" xfId="741"/>
+    <cellStyle name="20% - アクセント 2 4 6" xfId="529"/>
     <cellStyle name="20% - アクセント 2 5" xfId="119"/>
     <cellStyle name="20% - アクセント 2 5 2" xfId="205"/>
     <cellStyle name="20% - アクセント 2 5 2 2" xfId="417"/>
+    <cellStyle name="20% - アクセント 2 5 2 2 2" xfId="855"/>
+    <cellStyle name="20% - アクセント 2 5 2 3" xfId="643"/>
     <cellStyle name="20% - アクセント 2 5 3" xfId="331"/>
+    <cellStyle name="20% - アクセント 2 5 3 2" xfId="769"/>
+    <cellStyle name="20% - アクセント 2 5 4" xfId="557"/>
     <cellStyle name="20% - アクセント 2 6" xfId="163"/>
     <cellStyle name="20% - アクセント 2 6 2" xfId="375"/>
+    <cellStyle name="20% - アクセント 2 6 2 2" xfId="813"/>
+    <cellStyle name="20% - アクセント 2 6 3" xfId="601"/>
     <cellStyle name="20% - アクセント 2 7" xfId="247"/>
     <cellStyle name="20% - アクセント 2 7 2" xfId="459"/>
+    <cellStyle name="20% - アクセント 2 7 2 2" xfId="897"/>
+    <cellStyle name="20% - アクセント 2 7 3" xfId="685"/>
     <cellStyle name="20% - アクセント 2 8" xfId="289"/>
+    <cellStyle name="20% - アクセント 2 8 2" xfId="727"/>
     <cellStyle name="20% - アクセント 2 9" xfId="503"/>
     <cellStyle name="20% - アクセント 3" xfId="72" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3 10" xfId="517"/>
     <cellStyle name="20% - アクセント 3 2" xfId="4"/>
     <cellStyle name="20% - アクセント 3 3" xfId="109"/>
     <cellStyle name="20% - アクセント 3 3 2" xfId="151"/>
     <cellStyle name="20% - アクセント 3 3 2 2" xfId="237"/>
     <cellStyle name="20% - アクセント 3 3 2 2 2" xfId="449"/>
+    <cellStyle name="20% - アクセント 3 3 2 2 2 2" xfId="887"/>
+    <cellStyle name="20% - アクセント 3 3 2 2 3" xfId="675"/>
     <cellStyle name="20% - アクセント 3 3 2 3" xfId="363"/>
+    <cellStyle name="20% - アクセント 3 3 2 3 2" xfId="801"/>
+    <cellStyle name="20% - アクセント 3 3 2 4" xfId="589"/>
     <cellStyle name="20% - アクセント 3 3 3" xfId="279"/>
     <cellStyle name="20% - アクセント 3 3 3 2" xfId="491"/>
+    <cellStyle name="20% - アクセント 3 3 3 2 2" xfId="929"/>
+    <cellStyle name="20% - アクセント 3 3 3 3" xfId="717"/>
     <cellStyle name="20% - アクセント 3 3 4" xfId="195"/>
     <cellStyle name="20% - アクセント 3 3 4 2" xfId="407"/>
+    <cellStyle name="20% - アクセント 3 3 4 2 2" xfId="845"/>
+    <cellStyle name="20% - アクセント 3 3 4 3" xfId="633"/>
     <cellStyle name="20% - アクセント 3 3 5" xfId="321"/>
+    <cellStyle name="20% - アクセント 3 3 5 2" xfId="759"/>
+    <cellStyle name="20% - アクセント 3 3 6" xfId="547"/>
     <cellStyle name="20% - アクセント 3 4" xfId="93"/>
     <cellStyle name="20% - アクセント 3 4 2" xfId="135"/>
     <cellStyle name="20% - アクセント 3 4 2 2" xfId="221"/>
     <cellStyle name="20% - アクセント 3 4 2 2 2" xfId="433"/>
+    <cellStyle name="20% - アクセント 3 4 2 2 2 2" xfId="871"/>
+    <cellStyle name="20% - アクセント 3 4 2 2 3" xfId="659"/>
     <cellStyle name="20% - アクセント 3 4 2 3" xfId="347"/>
+    <cellStyle name="20% - アクセント 3 4 2 3 2" xfId="785"/>
+    <cellStyle name="20% - アクセント 3 4 2 4" xfId="573"/>
     <cellStyle name="20% - アクセント 3 4 3" xfId="263"/>
     <cellStyle name="20% - アクセント 3 4 3 2" xfId="475"/>
+    <cellStyle name="20% - アクセント 3 4 3 2 2" xfId="913"/>
+    <cellStyle name="20% - アクセント 3 4 3 3" xfId="701"/>
     <cellStyle name="20% - アクセント 3 4 4" xfId="179"/>
     <cellStyle name="20% - アクセント 3 4 4 2" xfId="391"/>
+    <cellStyle name="20% - アクセント 3 4 4 2 2" xfId="829"/>
+    <cellStyle name="20% - アクセント 3 4 4 3" xfId="617"/>
     <cellStyle name="20% - アクセント 3 4 5" xfId="305"/>
+    <cellStyle name="20% - アクセント 3 4 5 2" xfId="743"/>
+    <cellStyle name="20% - アクセント 3 4 6" xfId="531"/>
     <cellStyle name="20% - アクセント 3 5" xfId="121"/>
     <cellStyle name="20% - アクセント 3 5 2" xfId="207"/>
     <cellStyle name="20% - アクセント 3 5 2 2" xfId="419"/>
+    <cellStyle name="20% - アクセント 3 5 2 2 2" xfId="857"/>
+    <cellStyle name="20% - アクセント 3 5 2 3" xfId="645"/>
     <cellStyle name="20% - アクセント 3 5 3" xfId="333"/>
+    <cellStyle name="20% - アクセント 3 5 3 2" xfId="771"/>
+    <cellStyle name="20% - アクセント 3 5 4" xfId="559"/>
     <cellStyle name="20% - アクセント 3 6" xfId="165"/>
     <cellStyle name="20% - アクセント 3 6 2" xfId="377"/>
+    <cellStyle name="20% - アクセント 3 6 2 2" xfId="815"/>
+    <cellStyle name="20% - アクセント 3 6 3" xfId="603"/>
     <cellStyle name="20% - アクセント 3 7" xfId="249"/>
     <cellStyle name="20% - アクセント 3 7 2" xfId="461"/>
+    <cellStyle name="20% - アクセント 3 7 2 2" xfId="899"/>
+    <cellStyle name="20% - アクセント 3 7 3" xfId="687"/>
     <cellStyle name="20% - アクセント 3 8" xfId="291"/>
+    <cellStyle name="20% - アクセント 3 8 2" xfId="729"/>
     <cellStyle name="20% - アクセント 3 9" xfId="505"/>
     <cellStyle name="20% - アクセント 4" xfId="76" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4 10" xfId="519"/>
     <cellStyle name="20% - アクセント 4 2" xfId="5"/>
     <cellStyle name="20% - アクセント 4 3" xfId="111"/>
     <cellStyle name="20% - アクセント 4 3 2" xfId="153"/>
     <cellStyle name="20% - アクセント 4 3 2 2" xfId="239"/>
     <cellStyle name="20% - アクセント 4 3 2 2 2" xfId="451"/>
+    <cellStyle name="20% - アクセント 4 3 2 2 2 2" xfId="889"/>
+    <cellStyle name="20% - アクセント 4 3 2 2 3" xfId="677"/>
     <cellStyle name="20% - アクセント 4 3 2 3" xfId="365"/>
+    <cellStyle name="20% - アクセント 4 3 2 3 2" xfId="803"/>
+    <cellStyle name="20% - アクセント 4 3 2 4" xfId="591"/>
     <cellStyle name="20% - アクセント 4 3 3" xfId="281"/>
     <cellStyle name="20% - アクセント 4 3 3 2" xfId="493"/>
+    <cellStyle name="20% - アクセント 4 3 3 2 2" xfId="931"/>
+    <cellStyle name="20% - アクセント 4 3 3 3" xfId="719"/>
     <cellStyle name="20% - アクセント 4 3 4" xfId="197"/>
     <cellStyle name="20% - アクセント 4 3 4 2" xfId="409"/>
+    <cellStyle name="20% - アクセント 4 3 4 2 2" xfId="847"/>
+    <cellStyle name="20% - アクセント 4 3 4 3" xfId="635"/>
     <cellStyle name="20% - アクセント 4 3 5" xfId="323"/>
+    <cellStyle name="20% - アクセント 4 3 5 2" xfId="761"/>
+    <cellStyle name="20% - アクセント 4 3 6" xfId="549"/>
     <cellStyle name="20% - アクセント 4 4" xfId="95"/>
     <cellStyle name="20% - アクセント 4 4 2" xfId="137"/>
     <cellStyle name="20% - アクセント 4 4 2 2" xfId="223"/>
     <cellStyle name="20% - アクセント 4 4 2 2 2" xfId="435"/>
+    <cellStyle name="20% - アクセント 4 4 2 2 2 2" xfId="873"/>
+    <cellStyle name="20% - アクセント 4 4 2 2 3" xfId="661"/>
     <cellStyle name="20% - アクセント 4 4 2 3" xfId="349"/>
+    <cellStyle name="20% - アクセント 4 4 2 3 2" xfId="787"/>
+    <cellStyle name="20% - アクセント 4 4 2 4" xfId="575"/>
     <cellStyle name="20% - アクセント 4 4 3" xfId="265"/>
     <cellStyle name="20% - アクセント 4 4 3 2" xfId="477"/>
+    <cellStyle name="20% - アクセント 4 4 3 2 2" xfId="915"/>
+    <cellStyle name="20% - アクセント 4 4 3 3" xfId="703"/>
     <cellStyle name="20% - アクセント 4 4 4" xfId="181"/>
     <cellStyle name="20% - アクセント 4 4 4 2" xfId="393"/>
+    <cellStyle name="20% - アクセント 4 4 4 2 2" xfId="831"/>
+    <cellStyle name="20% - アクセント 4 4 4 3" xfId="619"/>
     <cellStyle name="20% - アクセント 4 4 5" xfId="307"/>
+    <cellStyle name="20% - アクセント 4 4 5 2" xfId="745"/>
+    <cellStyle name="20% - アクセント 4 4 6" xfId="533"/>
     <cellStyle name="20% - アクセント 4 5" xfId="123"/>
     <cellStyle name="20% - アクセント 4 5 2" xfId="209"/>
     <cellStyle name="20% - アクセント 4 5 2 2" xfId="421"/>
+    <cellStyle name="20% - アクセント 4 5 2 2 2" xfId="859"/>
+    <cellStyle name="20% - アクセント 4 5 2 3" xfId="647"/>
     <cellStyle name="20% - アクセント 4 5 3" xfId="335"/>
+    <cellStyle name="20% - アクセント 4 5 3 2" xfId="773"/>
+    <cellStyle name="20% - アクセント 4 5 4" xfId="561"/>
     <cellStyle name="20% - アクセント 4 6" xfId="167"/>
     <cellStyle name="20% - アクセント 4 6 2" xfId="379"/>
+    <cellStyle name="20% - アクセント 4 6 2 2" xfId="817"/>
+    <cellStyle name="20% - アクセント 4 6 3" xfId="605"/>
     <cellStyle name="20% - アクセント 4 7" xfId="251"/>
     <cellStyle name="20% - アクセント 4 7 2" xfId="463"/>
+    <cellStyle name="20% - アクセント 4 7 2 2" xfId="901"/>
+    <cellStyle name="20% - アクセント 4 7 3" xfId="689"/>
     <cellStyle name="20% - アクセント 4 8" xfId="293"/>
+    <cellStyle name="20% - アクセント 4 8 2" xfId="731"/>
     <cellStyle name="20% - アクセント 4 9" xfId="507"/>
     <cellStyle name="20% - アクセント 5" xfId="80" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5 10" xfId="521"/>
     <cellStyle name="20% - アクセント 5 2" xfId="6"/>
     <cellStyle name="20% - アクセント 5 3" xfId="113"/>
     <cellStyle name="20% - アクセント 5 3 2" xfId="155"/>
     <cellStyle name="20% - アクセント 5 3 2 2" xfId="241"/>
     <cellStyle name="20% - アクセント 5 3 2 2 2" xfId="453"/>
+    <cellStyle name="20% - アクセント 5 3 2 2 2 2" xfId="891"/>
+    <cellStyle name="20% - アクセント 5 3 2 2 3" xfId="679"/>
     <cellStyle name="20% - アクセント 5 3 2 3" xfId="367"/>
+    <cellStyle name="20% - アクセント 5 3 2 3 2" xfId="805"/>
+    <cellStyle name="20% - アクセント 5 3 2 4" xfId="593"/>
     <cellStyle name="20% - アクセント 5 3 3" xfId="283"/>
     <cellStyle name="20% - アクセント 5 3 3 2" xfId="495"/>
+    <cellStyle name="20% - アクセント 5 3 3 2 2" xfId="933"/>
+    <cellStyle name="20% - アクセント 5 3 3 3" xfId="721"/>
     <cellStyle name="20% - アクセント 5 3 4" xfId="199"/>
     <cellStyle name="20% - アクセント 5 3 4 2" xfId="411"/>
+    <cellStyle name="20% - アクセント 5 3 4 2 2" xfId="849"/>
+    <cellStyle name="20% - アクセント 5 3 4 3" xfId="637"/>
     <cellStyle name="20% - アクセント 5 3 5" xfId="325"/>
+    <cellStyle name="20% - アクセント 5 3 5 2" xfId="763"/>
+    <cellStyle name="20% - アクセント 5 3 6" xfId="551"/>
     <cellStyle name="20% - アクセント 5 4" xfId="97"/>
     <cellStyle name="20% - アクセント 5 4 2" xfId="139"/>
     <cellStyle name="20% - アクセント 5 4 2 2" xfId="225"/>
     <cellStyle name="20% - アクセント 5 4 2 2 2" xfId="437"/>
+    <cellStyle name="20% - アクセント 5 4 2 2 2 2" xfId="875"/>
+    <cellStyle name="20% - アクセント 5 4 2 2 3" xfId="663"/>
     <cellStyle name="20% - アクセント 5 4 2 3" xfId="351"/>
+    <cellStyle name="20% - アクセント 5 4 2 3 2" xfId="789"/>
+    <cellStyle name="20% - アクセント 5 4 2 4" xfId="577"/>
     <cellStyle name="20% - アクセント 5 4 3" xfId="267"/>
     <cellStyle name="20% - アクセント 5 4 3 2" xfId="479"/>
+    <cellStyle name="20% - アクセント 5 4 3 2 2" xfId="917"/>
+    <cellStyle name="20% - アクセント 5 4 3 3" xfId="705"/>
     <cellStyle name="20% - アクセント 5 4 4" xfId="183"/>
     <cellStyle name="20% - アクセント 5 4 4 2" xfId="395"/>
+    <cellStyle name="20% - アクセント 5 4 4 2 2" xfId="833"/>
+    <cellStyle name="20% - アクセント 5 4 4 3" xfId="621"/>
     <cellStyle name="20% - アクセント 5 4 5" xfId="309"/>
+    <cellStyle name="20% - アクセント 5 4 5 2" xfId="747"/>
+    <cellStyle name="20% - アクセント 5 4 6" xfId="535"/>
     <cellStyle name="20% - アクセント 5 5" xfId="125"/>
     <cellStyle name="20% - アクセント 5 5 2" xfId="211"/>
     <cellStyle name="20% - アクセント 5 5 2 2" xfId="423"/>
+    <cellStyle name="20% - アクセント 5 5 2 2 2" xfId="861"/>
+    <cellStyle name="20% - アクセント 5 5 2 3" xfId="649"/>
     <cellStyle name="20% - アクセント 5 5 3" xfId="337"/>
+    <cellStyle name="20% - アクセント 5 5 3 2" xfId="775"/>
+    <cellStyle name="20% - アクセント 5 5 4" xfId="563"/>
     <cellStyle name="20% - アクセント 5 6" xfId="169"/>
     <cellStyle name="20% - アクセント 5 6 2" xfId="381"/>
+    <cellStyle name="20% - アクセント 5 6 2 2" xfId="819"/>
+    <cellStyle name="20% - アクセント 5 6 3" xfId="607"/>
     <cellStyle name="20% - アクセント 5 7" xfId="253"/>
     <cellStyle name="20% - アクセント 5 7 2" xfId="465"/>
+    <cellStyle name="20% - アクセント 5 7 2 2" xfId="903"/>
+    <cellStyle name="20% - アクセント 5 7 3" xfId="691"/>
     <cellStyle name="20% - アクセント 5 8" xfId="295"/>
+    <cellStyle name="20% - アクセント 5 8 2" xfId="733"/>
     <cellStyle name="20% - アクセント 5 9" xfId="509"/>
     <cellStyle name="20% - アクセント 6" xfId="84" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6 10" xfId="523"/>
     <cellStyle name="20% - アクセント 6 2" xfId="7"/>
     <cellStyle name="20% - アクセント 6 3" xfId="115"/>
     <cellStyle name="20% - アクセント 6 3 2" xfId="157"/>
     <cellStyle name="20% - アクセント 6 3 2 2" xfId="243"/>
     <cellStyle name="20% - アクセント 6 3 2 2 2" xfId="455"/>
+    <cellStyle name="20% - アクセント 6 3 2 2 2 2" xfId="893"/>
+    <cellStyle name="20% - アクセント 6 3 2 2 3" xfId="681"/>
     <cellStyle name="20% - アクセント 6 3 2 3" xfId="369"/>
+    <cellStyle name="20% - アクセント 6 3 2 3 2" xfId="807"/>
+    <cellStyle name="20% - アクセント 6 3 2 4" xfId="595"/>
     <cellStyle name="20% - アクセント 6 3 3" xfId="285"/>
     <cellStyle name="20% - アクセント 6 3 3 2" xfId="497"/>
+    <cellStyle name="20% - アクセント 6 3 3 2 2" xfId="935"/>
+    <cellStyle name="20% - アクセント 6 3 3 3" xfId="723"/>
     <cellStyle name="20% - アクセント 6 3 4" xfId="201"/>
     <cellStyle name="20% - アクセント 6 3 4 2" xfId="413"/>
+    <cellStyle name="20% - アクセント 6 3 4 2 2" xfId="851"/>
+    <cellStyle name="20% - アクセント 6 3 4 3" xfId="639"/>
     <cellStyle name="20% - アクセント 6 3 5" xfId="327"/>
+    <cellStyle name="20% - アクセント 6 3 5 2" xfId="765"/>
+    <cellStyle name="20% - アクセント 6 3 6" xfId="553"/>
     <cellStyle name="20% - アクセント 6 4" xfId="99"/>
     <cellStyle name="20% - アクセント 6 4 2" xfId="141"/>
     <cellStyle name="20% - アクセント 6 4 2 2" xfId="227"/>
     <cellStyle name="20% - アクセント 6 4 2 2 2" xfId="439"/>
+    <cellStyle name="20% - アクセント 6 4 2 2 2 2" xfId="877"/>
+    <cellStyle name="20% - アクセント 6 4 2 2 3" xfId="665"/>
     <cellStyle name="20% - アクセント 6 4 2 3" xfId="353"/>
+    <cellStyle name="20% - アクセント 6 4 2 3 2" xfId="791"/>
+    <cellStyle name="20% - アクセント 6 4 2 4" xfId="579"/>
     <cellStyle name="20% - アクセント 6 4 3" xfId="269"/>
     <cellStyle name="20% - アクセント 6 4 3 2" xfId="481"/>
+    <cellStyle name="20% - アクセント 6 4 3 2 2" xfId="919"/>
+    <cellStyle name="20% - アクセント 6 4 3 3" xfId="707"/>
     <cellStyle name="20% - アクセント 6 4 4" xfId="185"/>
     <cellStyle name="20% - アクセント 6 4 4 2" xfId="397"/>
+    <cellStyle name="20% - アクセント 6 4 4 2 2" xfId="835"/>
+    <cellStyle name="20% - アクセント 6 4 4 3" xfId="623"/>
     <cellStyle name="20% - アクセント 6 4 5" xfId="311"/>
+    <cellStyle name="20% - アクセント 6 4 5 2" xfId="749"/>
+    <cellStyle name="20% - アクセント 6 4 6" xfId="537"/>
     <cellStyle name="20% - アクセント 6 5" xfId="127"/>
     <cellStyle name="20% - アクセント 6 5 2" xfId="213"/>
     <cellStyle name="20% - アクセント 6 5 2 2" xfId="425"/>
+    <cellStyle name="20% - アクセント 6 5 2 2 2" xfId="863"/>
+    <cellStyle name="20% - アクセント 6 5 2 3" xfId="651"/>
     <cellStyle name="20% - アクセント 6 5 3" xfId="339"/>
+    <cellStyle name="20% - アクセント 6 5 3 2" xfId="777"/>
+    <cellStyle name="20% - アクセント 6 5 4" xfId="565"/>
     <cellStyle name="20% - アクセント 6 6" xfId="171"/>
     <cellStyle name="20% - アクセント 6 6 2" xfId="383"/>
+    <cellStyle name="20% - アクセント 6 6 2 2" xfId="821"/>
+    <cellStyle name="20% - アクセント 6 6 3" xfId="609"/>
     <cellStyle name="20% - アクセント 6 7" xfId="255"/>
     <cellStyle name="20% - アクセント 6 7 2" xfId="467"/>
+    <cellStyle name="20% - アクセント 6 7 2 2" xfId="905"/>
+    <cellStyle name="20% - アクセント 6 7 3" xfId="693"/>
     <cellStyle name="20% - アクセント 6 8" xfId="297"/>
+    <cellStyle name="20% - アクセント 6 8 2" xfId="735"/>
     <cellStyle name="20% - アクセント 6 9" xfId="511"/>
     <cellStyle name="40% - アクセント 1" xfId="65" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1 10" xfId="514"/>
     <cellStyle name="40% - アクセント 1 2" xfId="8"/>
     <cellStyle name="40% - アクセント 1 3" xfId="106"/>
     <cellStyle name="40% - アクセント 1 3 2" xfId="148"/>
     <cellStyle name="40% - アクセント 1 3 2 2" xfId="234"/>
     <cellStyle name="40% - アクセント 1 3 2 2 2" xfId="446"/>
+    <cellStyle name="40% - アクセント 1 3 2 2 2 2" xfId="884"/>
+    <cellStyle name="40% - アクセント 1 3 2 2 3" xfId="672"/>
     <cellStyle name="40% - アクセント 1 3 2 3" xfId="360"/>
+    <cellStyle name="40% - アクセント 1 3 2 3 2" xfId="798"/>
+    <cellStyle name="40% - アクセント 1 3 2 4" xfId="586"/>
     <cellStyle name="40% - アクセント 1 3 3" xfId="276"/>
     <cellStyle name="40% - アクセント 1 3 3 2" xfId="488"/>
+    <cellStyle name="40% - アクセント 1 3 3 2 2" xfId="926"/>
+    <cellStyle name="40% - アクセント 1 3 3 3" xfId="714"/>
     <cellStyle name="40% - アクセント 1 3 4" xfId="192"/>
     <cellStyle name="40% - アクセント 1 3 4 2" xfId="404"/>
+    <cellStyle name="40% - アクセント 1 3 4 2 2" xfId="842"/>
+    <cellStyle name="40% - アクセント 1 3 4 3" xfId="630"/>
     <cellStyle name="40% - アクセント 1 3 5" xfId="318"/>
+    <cellStyle name="40% - アクセント 1 3 5 2" xfId="756"/>
+    <cellStyle name="40% - アクセント 1 3 6" xfId="544"/>
     <cellStyle name="40% - アクセント 1 4" xfId="90"/>
     <cellStyle name="40% - アクセント 1 4 2" xfId="132"/>
     <cellStyle name="40% - アクセント 1 4 2 2" xfId="218"/>
     <cellStyle name="40% - アクセント 1 4 2 2 2" xfId="430"/>
+    <cellStyle name="40% - アクセント 1 4 2 2 2 2" xfId="868"/>
+    <cellStyle name="40% - アクセント 1 4 2 2 3" xfId="656"/>
     <cellStyle name="40% - アクセント 1 4 2 3" xfId="344"/>
+    <cellStyle name="40% - アクセント 1 4 2 3 2" xfId="782"/>
+    <cellStyle name="40% - アクセント 1 4 2 4" xfId="570"/>
     <cellStyle name="40% - アクセント 1 4 3" xfId="260"/>
     <cellStyle name="40% - アクセント 1 4 3 2" xfId="472"/>
+    <cellStyle name="40% - アクセント 1 4 3 2 2" xfId="910"/>
+    <cellStyle name="40% - アクセント 1 4 3 3" xfId="698"/>
     <cellStyle name="40% - アクセント 1 4 4" xfId="176"/>
     <cellStyle name="40% - アクセント 1 4 4 2" xfId="388"/>
+    <cellStyle name="40% - アクセント 1 4 4 2 2" xfId="826"/>
+    <cellStyle name="40% - アクセント 1 4 4 3" xfId="614"/>
     <cellStyle name="40% - アクセント 1 4 5" xfId="302"/>
+    <cellStyle name="40% - アクセント 1 4 5 2" xfId="740"/>
+    <cellStyle name="40% - アクセント 1 4 6" xfId="528"/>
     <cellStyle name="40% - アクセント 1 5" xfId="118"/>
     <cellStyle name="40% - アクセント 1 5 2" xfId="204"/>
     <cellStyle name="40% - アクセント 1 5 2 2" xfId="416"/>
+    <cellStyle name="40% - アクセント 1 5 2 2 2" xfId="854"/>
+    <cellStyle name="40% - アクセント 1 5 2 3" xfId="642"/>
     <cellStyle name="40% - アクセント 1 5 3" xfId="330"/>
+    <cellStyle name="40% - アクセント 1 5 3 2" xfId="768"/>
+    <cellStyle name="40% - アクセント 1 5 4" xfId="556"/>
     <cellStyle name="40% - アクセント 1 6" xfId="162"/>
     <cellStyle name="40% - アクセント 1 6 2" xfId="374"/>
+    <cellStyle name="40% - アクセント 1 6 2 2" xfId="812"/>
+    <cellStyle name="40% - アクセント 1 6 3" xfId="600"/>
     <cellStyle name="40% - アクセント 1 7" xfId="246"/>
     <cellStyle name="40% - アクセント 1 7 2" xfId="458"/>
+    <cellStyle name="40% - アクセント 1 7 2 2" xfId="896"/>
+    <cellStyle name="40% - アクセント 1 7 3" xfId="684"/>
     <cellStyle name="40% - アクセント 1 8" xfId="288"/>
+    <cellStyle name="40% - アクセント 1 8 2" xfId="726"/>
     <cellStyle name="40% - アクセント 1 9" xfId="502"/>
     <cellStyle name="40% - アクセント 2" xfId="69" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2 10" xfId="516"/>
     <cellStyle name="40% - アクセント 2 2" xfId="9"/>
     <cellStyle name="40% - アクセント 2 3" xfId="108"/>
     <cellStyle name="40% - アクセント 2 3 2" xfId="150"/>
     <cellStyle name="40% - アクセント 2 3 2 2" xfId="236"/>
     <cellStyle name="40% - アクセント 2 3 2 2 2" xfId="448"/>
+    <cellStyle name="40% - アクセント 2 3 2 2 2 2" xfId="886"/>
+    <cellStyle name="40% - アクセント 2 3 2 2 3" xfId="674"/>
     <cellStyle name="40% - アクセント 2 3 2 3" xfId="362"/>
+    <cellStyle name="40% - アクセント 2 3 2 3 2" xfId="800"/>
+    <cellStyle name="40% - アクセント 2 3 2 4" xfId="588"/>
     <cellStyle name="40% - アクセント 2 3 3" xfId="278"/>
     <cellStyle name="40% - アクセント 2 3 3 2" xfId="490"/>
+    <cellStyle name="40% - アクセント 2 3 3 2 2" xfId="928"/>
+    <cellStyle name="40% - アクセント 2 3 3 3" xfId="716"/>
     <cellStyle name="40% - アクセント 2 3 4" xfId="194"/>
     <cellStyle name="40% - アクセント 2 3 4 2" xfId="406"/>
+    <cellStyle name="40% - アクセント 2 3 4 2 2" xfId="844"/>
+    <cellStyle name="40% - アクセント 2 3 4 3" xfId="632"/>
     <cellStyle name="40% - アクセント 2 3 5" xfId="320"/>
+    <cellStyle name="40% - アクセント 2 3 5 2" xfId="758"/>
+    <cellStyle name="40% - アクセント 2 3 6" xfId="546"/>
     <cellStyle name="40% - アクセント 2 4" xfId="92"/>
     <cellStyle name="40% - アクセント 2 4 2" xfId="134"/>
     <cellStyle name="40% - アクセント 2 4 2 2" xfId="220"/>
     <cellStyle name="40% - アクセント 2 4 2 2 2" xfId="432"/>
+    <cellStyle name="40% - アクセント 2 4 2 2 2 2" xfId="870"/>
+    <cellStyle name="40% - アクセント 2 4 2 2 3" xfId="658"/>
     <cellStyle name="40% - アクセント 2 4 2 3" xfId="346"/>
+    <cellStyle name="40% - アクセント 2 4 2 3 2" xfId="784"/>
+    <cellStyle name="40% - アクセント 2 4 2 4" xfId="572"/>
     <cellStyle name="40% - アクセント 2 4 3" xfId="262"/>
     <cellStyle name="40% - アクセント 2 4 3 2" xfId="474"/>
+    <cellStyle name="40% - アクセント 2 4 3 2 2" xfId="912"/>
+    <cellStyle name="40% - アクセント 2 4 3 3" xfId="700"/>
     <cellStyle name="40% - アクセント 2 4 4" xfId="178"/>
     <cellStyle name="40% - アクセント 2 4 4 2" xfId="390"/>
+    <cellStyle name="40% - アクセント 2 4 4 2 2" xfId="828"/>
+    <cellStyle name="40% - アクセント 2 4 4 3" xfId="616"/>
     <cellStyle name="40% - アクセント 2 4 5" xfId="304"/>
+    <cellStyle name="40% - アクセント 2 4 5 2" xfId="742"/>
+    <cellStyle name="40% - アクセント 2 4 6" xfId="530"/>
     <cellStyle name="40% - アクセント 2 5" xfId="120"/>
     <cellStyle name="40% - アクセント 2 5 2" xfId="206"/>
     <cellStyle name="40% - アクセント 2 5 2 2" xfId="418"/>
+    <cellStyle name="40% - アクセント 2 5 2 2 2" xfId="856"/>
+    <cellStyle name="40% - アクセント 2 5 2 3" xfId="644"/>
     <cellStyle name="40% - アクセント 2 5 3" xfId="332"/>
+    <cellStyle name="40% - アクセント 2 5 3 2" xfId="770"/>
+    <cellStyle name="40% - アクセント 2 5 4" xfId="558"/>
     <cellStyle name="40% - アクセント 2 6" xfId="164"/>
     <cellStyle name="40% - アクセント 2 6 2" xfId="376"/>
+    <cellStyle name="40% - アクセント 2 6 2 2" xfId="814"/>
+    <cellStyle name="40% - アクセント 2 6 3" xfId="602"/>
     <cellStyle name="40% - アクセント 2 7" xfId="248"/>
     <cellStyle name="40% - アクセント 2 7 2" xfId="460"/>
+    <cellStyle name="40% - アクセント 2 7 2 2" xfId="898"/>
+    <cellStyle name="40% - アクセント 2 7 3" xfId="686"/>
     <cellStyle name="40% - アクセント 2 8" xfId="290"/>
+    <cellStyle name="40% - アクセント 2 8 2" xfId="728"/>
     <cellStyle name="40% - アクセント 2 9" xfId="504"/>
     <cellStyle name="40% - アクセント 3" xfId="73" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3 10" xfId="518"/>
     <cellStyle name="40% - アクセント 3 2" xfId="10"/>
     <cellStyle name="40% - アクセント 3 3" xfId="110"/>
     <cellStyle name="40% - アクセント 3 3 2" xfId="152"/>
     <cellStyle name="40% - アクセント 3 3 2 2" xfId="238"/>
     <cellStyle name="40% - アクセント 3 3 2 2 2" xfId="450"/>
+    <cellStyle name="40% - アクセント 3 3 2 2 2 2" xfId="888"/>
+    <cellStyle name="40% - アクセント 3 3 2 2 3" xfId="676"/>
     <cellStyle name="40% - アクセント 3 3 2 3" xfId="364"/>
+    <cellStyle name="40% - アクセント 3 3 2 3 2" xfId="802"/>
+    <cellStyle name="40% - アクセント 3 3 2 4" xfId="590"/>
     <cellStyle name="40% - アクセント 3 3 3" xfId="280"/>
     <cellStyle name="40% - アクセント 3 3 3 2" xfId="492"/>
+    <cellStyle name="40% - アクセント 3 3 3 2 2" xfId="930"/>
+    <cellStyle name="40% - アクセント 3 3 3 3" xfId="718"/>
     <cellStyle name="40% - アクセント 3 3 4" xfId="196"/>
     <cellStyle name="40% - アクセント 3 3 4 2" xfId="408"/>
+    <cellStyle name="40% - アクセント 3 3 4 2 2" xfId="846"/>
+    <cellStyle name="40% - アクセント 3 3 4 3" xfId="634"/>
     <cellStyle name="40% - アクセント 3 3 5" xfId="322"/>
+    <cellStyle name="40% - アクセント 3 3 5 2" xfId="760"/>
+    <cellStyle name="40% - アクセント 3 3 6" xfId="548"/>
     <cellStyle name="40% - アクセント 3 4" xfId="94"/>
     <cellStyle name="40% - アクセント 3 4 2" xfId="136"/>
     <cellStyle name="40% - アクセント 3 4 2 2" xfId="222"/>
     <cellStyle name="40% - アクセント 3 4 2 2 2" xfId="434"/>
+    <cellStyle name="40% - アクセント 3 4 2 2 2 2" xfId="872"/>
+    <cellStyle name="40% - アクセント 3 4 2 2 3" xfId="660"/>
     <cellStyle name="40% - アクセント 3 4 2 3" xfId="348"/>
+    <cellStyle name="40% - アクセント 3 4 2 3 2" xfId="786"/>
+    <cellStyle name="40% - アクセント 3 4 2 4" xfId="574"/>
     <cellStyle name="40% - アクセント 3 4 3" xfId="264"/>
     <cellStyle name="40% - アクセント 3 4 3 2" xfId="476"/>
+    <cellStyle name="40% - アクセント 3 4 3 2 2" xfId="914"/>
+    <cellStyle name="40% - アクセント 3 4 3 3" xfId="702"/>
     <cellStyle name="40% - アクセント 3 4 4" xfId="180"/>
     <cellStyle name="40% - アクセント 3 4 4 2" xfId="392"/>
+    <cellStyle name="40% - アクセント 3 4 4 2 2" xfId="830"/>
+    <cellStyle name="40% - アクセント 3 4 4 3" xfId="618"/>
     <cellStyle name="40% - アクセント 3 4 5" xfId="306"/>
+    <cellStyle name="40% - アクセント 3 4 5 2" xfId="744"/>
+    <cellStyle name="40% - アクセント 3 4 6" xfId="532"/>
     <cellStyle name="40% - アクセント 3 5" xfId="122"/>
     <cellStyle name="40% - アクセント 3 5 2" xfId="208"/>
     <cellStyle name="40% - アクセント 3 5 2 2" xfId="420"/>
+    <cellStyle name="40% - アクセント 3 5 2 2 2" xfId="858"/>
+    <cellStyle name="40% - アクセント 3 5 2 3" xfId="646"/>
     <cellStyle name="40% - アクセント 3 5 3" xfId="334"/>
+    <cellStyle name="40% - アクセント 3 5 3 2" xfId="772"/>
+    <cellStyle name="40% - アクセント 3 5 4" xfId="560"/>
     <cellStyle name="40% - アクセント 3 6" xfId="166"/>
     <cellStyle name="40% - アクセント 3 6 2" xfId="378"/>
+    <cellStyle name="40% - アクセント 3 6 2 2" xfId="816"/>
+    <cellStyle name="40% - アクセント 3 6 3" xfId="604"/>
     <cellStyle name="40% - アクセント 3 7" xfId="250"/>
     <cellStyle name="40% - アクセント 3 7 2" xfId="462"/>
+    <cellStyle name="40% - アクセント 3 7 2 2" xfId="900"/>
+    <cellStyle name="40% - アクセント 3 7 3" xfId="688"/>
     <cellStyle name="40% - アクセント 3 8" xfId="292"/>
+    <cellStyle name="40% - アクセント 3 8 2" xfId="730"/>
     <cellStyle name="40% - アクセント 3 9" xfId="506"/>
     <cellStyle name="40% - アクセント 4" xfId="77" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4 10" xfId="520"/>
     <cellStyle name="40% - アクセント 4 2" xfId="11"/>
     <cellStyle name="40% - アクセント 4 3" xfId="112"/>
     <cellStyle name="40% - アクセント 4 3 2" xfId="154"/>
     <cellStyle name="40% - アクセント 4 3 2 2" xfId="240"/>
     <cellStyle name="40% - アクセント 4 3 2 2 2" xfId="452"/>
+    <cellStyle name="40% - アクセント 4 3 2 2 2 2" xfId="890"/>
+    <cellStyle name="40% - アクセント 4 3 2 2 3" xfId="678"/>
     <cellStyle name="40% - アクセント 4 3 2 3" xfId="366"/>
+    <cellStyle name="40% - アクセント 4 3 2 3 2" xfId="804"/>
+    <cellStyle name="40% - アクセント 4 3 2 4" xfId="592"/>
     <cellStyle name="40% - アクセント 4 3 3" xfId="282"/>
     <cellStyle name="40% - アクセント 4 3 3 2" xfId="494"/>
+    <cellStyle name="40% - アクセント 4 3 3 2 2" xfId="932"/>
+    <cellStyle name="40% - アクセント 4 3 3 3" xfId="720"/>
     <cellStyle name="40% - アクセント 4 3 4" xfId="198"/>
     <cellStyle name="40% - アクセント 4 3 4 2" xfId="410"/>
+    <cellStyle name="40% - アクセント 4 3 4 2 2" xfId="848"/>
+    <cellStyle name="40% - アクセント 4 3 4 3" xfId="636"/>
     <cellStyle name="40% - アクセント 4 3 5" xfId="324"/>
+    <cellStyle name="40% - アクセント 4 3 5 2" xfId="762"/>
+    <cellStyle name="40% - アクセント 4 3 6" xfId="550"/>
     <cellStyle name="40% - アクセント 4 4" xfId="96"/>
     <cellStyle name="40% - アクセント 4 4 2" xfId="138"/>
     <cellStyle name="40% - アクセント 4 4 2 2" xfId="224"/>
     <cellStyle name="40% - アクセント 4 4 2 2 2" xfId="436"/>
+    <cellStyle name="40% - アクセント 4 4 2 2 2 2" xfId="874"/>
+    <cellStyle name="40% - アクセント 4 4 2 2 3" xfId="662"/>
     <cellStyle name="40% - アクセント 4 4 2 3" xfId="350"/>
+    <cellStyle name="40% - アクセント 4 4 2 3 2" xfId="788"/>
+    <cellStyle name="40% - アクセント 4 4 2 4" xfId="576"/>
     <cellStyle name="40% - アクセント 4 4 3" xfId="266"/>
     <cellStyle name="40% - アクセント 4 4 3 2" xfId="478"/>
+    <cellStyle name="40% - アクセント 4 4 3 2 2" xfId="916"/>
+    <cellStyle name="40% - アクセント 4 4 3 3" xfId="704"/>
     <cellStyle name="40% - アクセント 4 4 4" xfId="182"/>
     <cellStyle name="40% - アクセント 4 4 4 2" xfId="394"/>
+    <cellStyle name="40% - アクセント 4 4 4 2 2" xfId="832"/>
+    <cellStyle name="40% - アクセント 4 4 4 3" xfId="620"/>
     <cellStyle name="40% - アクセント 4 4 5" xfId="308"/>
+    <cellStyle name="40% - アクセント 4 4 5 2" xfId="746"/>
+    <cellStyle name="40% - アクセント 4 4 6" xfId="534"/>
     <cellStyle name="40% - アクセント 4 5" xfId="124"/>
     <cellStyle name="40% - アクセント 4 5 2" xfId="210"/>
     <cellStyle name="40% - アクセント 4 5 2 2" xfId="422"/>
+    <cellStyle name="40% - アクセント 4 5 2 2 2" xfId="860"/>
+    <cellStyle name="40% - アクセント 4 5 2 3" xfId="648"/>
     <cellStyle name="40% - アクセント 4 5 3" xfId="336"/>
+    <cellStyle name="40% - アクセント 4 5 3 2" xfId="774"/>
+    <cellStyle name="40% - アクセント 4 5 4" xfId="562"/>
     <cellStyle name="40% - アクセント 4 6" xfId="168"/>
     <cellStyle name="40% - アクセント 4 6 2" xfId="380"/>
+    <cellStyle name="40% - アクセント 4 6 2 2" xfId="818"/>
+    <cellStyle name="40% - アクセント 4 6 3" xfId="606"/>
     <cellStyle name="40% - アクセント 4 7" xfId="252"/>
     <cellStyle name="40% - アクセント 4 7 2" xfId="464"/>
+    <cellStyle name="40% - アクセント 4 7 2 2" xfId="902"/>
+    <cellStyle name="40% - アクセント 4 7 3" xfId="690"/>
     <cellStyle name="40% - アクセント 4 8" xfId="294"/>
+    <cellStyle name="40% - アクセント 4 8 2" xfId="732"/>
     <cellStyle name="40% - アクセント 4 9" xfId="508"/>
     <cellStyle name="40% - アクセント 5" xfId="81" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5 10" xfId="522"/>
     <cellStyle name="40% - アクセント 5 2" xfId="12"/>
     <cellStyle name="40% - アクセント 5 3" xfId="114"/>
     <cellStyle name="40% - アクセント 5 3 2" xfId="156"/>
     <cellStyle name="40% - アクセント 5 3 2 2" xfId="242"/>
     <cellStyle name="40% - アクセント 5 3 2 2 2" xfId="454"/>
+    <cellStyle name="40% - アクセント 5 3 2 2 2 2" xfId="892"/>
+    <cellStyle name="40% - アクセント 5 3 2 2 3" xfId="680"/>
     <cellStyle name="40% - アクセント 5 3 2 3" xfId="368"/>
+    <cellStyle name="40% - アクセント 5 3 2 3 2" xfId="806"/>
+    <cellStyle name="40% - アクセント 5 3 2 4" xfId="594"/>
     <cellStyle name="40% - アクセント 5 3 3" xfId="284"/>
     <cellStyle name="40% - アクセント 5 3 3 2" xfId="496"/>
+    <cellStyle name="40% - アクセント 5 3 3 2 2" xfId="934"/>
+    <cellStyle name="40% - アクセント 5 3 3 3" xfId="722"/>
     <cellStyle name="40% - アクセント 5 3 4" xfId="200"/>
     <cellStyle name="40% - アクセント 5 3 4 2" xfId="412"/>
+    <cellStyle name="40% - アクセント 5 3 4 2 2" xfId="850"/>
+    <cellStyle name="40% - アクセント 5 3 4 3" xfId="638"/>
     <cellStyle name="40% - アクセント 5 3 5" xfId="326"/>
+    <cellStyle name="40% - アクセント 5 3 5 2" xfId="764"/>
+    <cellStyle name="40% - アクセント 5 3 6" xfId="552"/>
     <cellStyle name="40% - アクセント 5 4" xfId="98"/>
     <cellStyle name="40% - アクセント 5 4 2" xfId="140"/>
     <cellStyle name="40% - アクセント 5 4 2 2" xfId="226"/>
     <cellStyle name="40% - アクセント 5 4 2 2 2" xfId="438"/>
+    <cellStyle name="40% - アクセント 5 4 2 2 2 2" xfId="876"/>
+    <cellStyle name="40% - アクセント 5 4 2 2 3" xfId="664"/>
     <cellStyle name="40% - アクセント 5 4 2 3" xfId="352"/>
+    <cellStyle name="40% - アクセント 5 4 2 3 2" xfId="790"/>
+    <cellStyle name="40% - アクセント 5 4 2 4" xfId="578"/>
     <cellStyle name="40% - アクセント 5 4 3" xfId="268"/>
     <cellStyle name="40% - アクセント 5 4 3 2" xfId="480"/>
+    <cellStyle name="40% - アクセント 5 4 3 2 2" xfId="918"/>
+    <cellStyle name="40% - アクセント 5 4 3 3" xfId="706"/>
     <cellStyle name="40% - アクセント 5 4 4" xfId="184"/>
     <cellStyle name="40% - アクセント 5 4 4 2" xfId="396"/>
+    <cellStyle name="40% - アクセント 5 4 4 2 2" xfId="834"/>
+    <cellStyle name="40% - アクセント 5 4 4 3" xfId="622"/>
     <cellStyle name="40% - アクセント 5 4 5" xfId="310"/>
+    <cellStyle name="40% - アクセント 5 4 5 2" xfId="748"/>
+    <cellStyle name="40% - アクセント 5 4 6" xfId="536"/>
     <cellStyle name="40% - アクセント 5 5" xfId="126"/>
     <cellStyle name="40% - アクセント 5 5 2" xfId="212"/>
     <cellStyle name="40% - アクセント 5 5 2 2" xfId="424"/>
+    <cellStyle name="40% - アクセント 5 5 2 2 2" xfId="862"/>
+    <cellStyle name="40% - アクセント 5 5 2 3" xfId="650"/>
     <cellStyle name="40% - アクセント 5 5 3" xfId="338"/>
+    <cellStyle name="40% - アクセント 5 5 3 2" xfId="776"/>
+    <cellStyle name="40% - アクセント 5 5 4" xfId="564"/>
     <cellStyle name="40% - アクセント 5 6" xfId="170"/>
     <cellStyle name="40% - アクセント 5 6 2" xfId="382"/>
+    <cellStyle name="40% - アクセント 5 6 2 2" xfId="820"/>
+    <cellStyle name="40% - アクセント 5 6 3" xfId="608"/>
     <cellStyle name="40% - アクセント 5 7" xfId="254"/>
     <cellStyle name="40% - アクセント 5 7 2" xfId="466"/>
+    <cellStyle name="40% - アクセント 5 7 2 2" xfId="904"/>
+    <cellStyle name="40% - アクセント 5 7 3" xfId="692"/>
     <cellStyle name="40% - アクセント 5 8" xfId="296"/>
+    <cellStyle name="40% - アクセント 5 8 2" xfId="734"/>
     <cellStyle name="40% - アクセント 5 9" xfId="510"/>
     <cellStyle name="40% - アクセント 6" xfId="85" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6 10" xfId="524"/>
     <cellStyle name="40% - アクセント 6 2" xfId="13"/>
     <cellStyle name="40% - アクセント 6 3" xfId="116"/>
     <cellStyle name="40% - アクセント 6 3 2" xfId="158"/>
     <cellStyle name="40% - アクセント 6 3 2 2" xfId="244"/>
     <cellStyle name="40% - アクセント 6 3 2 2 2" xfId="456"/>
+    <cellStyle name="40% - アクセント 6 3 2 2 2 2" xfId="894"/>
+    <cellStyle name="40% - アクセント 6 3 2 2 3" xfId="682"/>
     <cellStyle name="40% - アクセント 6 3 2 3" xfId="370"/>
+    <cellStyle name="40% - アクセント 6 3 2 3 2" xfId="808"/>
+    <cellStyle name="40% - アクセント 6 3 2 4" xfId="596"/>
     <cellStyle name="40% - アクセント 6 3 3" xfId="286"/>
     <cellStyle name="40% - アクセント 6 3 3 2" xfId="498"/>
+    <cellStyle name="40% - アクセント 6 3 3 2 2" xfId="936"/>
+    <cellStyle name="40% - アクセント 6 3 3 3" xfId="724"/>
     <cellStyle name="40% - アクセント 6 3 4" xfId="202"/>
     <cellStyle name="40% - アクセント 6 3 4 2" xfId="414"/>
+    <cellStyle name="40% - アクセント 6 3 4 2 2" xfId="852"/>
+    <cellStyle name="40% - アクセント 6 3 4 3" xfId="640"/>
     <cellStyle name="40% - アクセント 6 3 5" xfId="328"/>
+    <cellStyle name="40% - アクセント 6 3 5 2" xfId="766"/>
+    <cellStyle name="40% - アクセント 6 3 6" xfId="554"/>
     <cellStyle name="40% - アクセント 6 4" xfId="100"/>
     <cellStyle name="40% - アクセント 6 4 2" xfId="142"/>
     <cellStyle name="40% - アクセント 6 4 2 2" xfId="228"/>
     <cellStyle name="40% - アクセント 6 4 2 2 2" xfId="440"/>
+    <cellStyle name="40% - アクセント 6 4 2 2 2 2" xfId="878"/>
+    <cellStyle name="40% - アクセント 6 4 2 2 3" xfId="666"/>
     <cellStyle name="40% - アクセント 6 4 2 3" xfId="354"/>
+    <cellStyle name="40% - アクセント 6 4 2 3 2" xfId="792"/>
+    <cellStyle name="40% - アクセント 6 4 2 4" xfId="580"/>
     <cellStyle name="40% - アクセント 6 4 3" xfId="270"/>
     <cellStyle name="40% - アクセント 6 4 3 2" xfId="482"/>
+    <cellStyle name="40% - アクセント 6 4 3 2 2" xfId="920"/>
+    <cellStyle name="40% - アクセント 6 4 3 3" xfId="708"/>
     <cellStyle name="40% - アクセント 6 4 4" xfId="186"/>
     <cellStyle name="40% - アクセント 6 4 4 2" xfId="398"/>
+    <cellStyle name="40% - アクセント 6 4 4 2 2" xfId="836"/>
+    <cellStyle name="40% - アクセント 6 4 4 3" xfId="624"/>
     <cellStyle name="40% - アクセント 6 4 5" xfId="312"/>
+    <cellStyle name="40% - アクセント 6 4 5 2" xfId="750"/>
+    <cellStyle name="40% - アクセント 6 4 6" xfId="538"/>
     <cellStyle name="40% - アクセント 6 5" xfId="128"/>
     <cellStyle name="40% - アクセント 6 5 2" xfId="214"/>
     <cellStyle name="40% - アクセント 6 5 2 2" xfId="426"/>
+    <cellStyle name="40% - アクセント 6 5 2 2 2" xfId="864"/>
+    <cellStyle name="40% - アクセント 6 5 2 3" xfId="652"/>
     <cellStyle name="40% - アクセント 6 5 3" xfId="340"/>
+    <cellStyle name="40% - アクセント 6 5 3 2" xfId="778"/>
+    <cellStyle name="40% - アクセント 6 5 4" xfId="566"/>
     <cellStyle name="40% - アクセント 6 6" xfId="172"/>
     <cellStyle name="40% - アクセント 6 6 2" xfId="384"/>
+    <cellStyle name="40% - アクセント 6 6 2 2" xfId="822"/>
+    <cellStyle name="40% - アクセント 6 6 3" xfId="610"/>
     <cellStyle name="40% - アクセント 6 7" xfId="256"/>
     <cellStyle name="40% - アクセント 6 7 2" xfId="468"/>
+    <cellStyle name="40% - アクセント 6 7 2 2" xfId="906"/>
+    <cellStyle name="40% - アクセント 6 7 3" xfId="694"/>
     <cellStyle name="40% - アクセント 6 8" xfId="298"/>
+    <cellStyle name="40% - アクセント 6 8 2" xfId="736"/>
     <cellStyle name="40% - アクセント 6 9" xfId="512"/>
     <cellStyle name="60% - アクセント 1" xfId="66" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 1 2" xfId="14"/>
@@ -3755,33 +5412,65 @@
     <cellStyle name="メモ 3 2 2" xfId="144"/>
     <cellStyle name="メモ 3 2 2 2" xfId="230"/>
     <cellStyle name="メモ 3 2 2 2 2" xfId="442"/>
+    <cellStyle name="メモ 3 2 2 2 2 2" xfId="880"/>
+    <cellStyle name="メモ 3 2 2 2 3" xfId="668"/>
     <cellStyle name="メモ 3 2 2 3" xfId="356"/>
+    <cellStyle name="メモ 3 2 2 3 2" xfId="794"/>
+    <cellStyle name="メモ 3 2 2 4" xfId="582"/>
     <cellStyle name="メモ 3 2 3" xfId="272"/>
     <cellStyle name="メモ 3 2 3 2" xfId="484"/>
+    <cellStyle name="メモ 3 2 3 2 2" xfId="922"/>
+    <cellStyle name="メモ 3 2 3 3" xfId="710"/>
     <cellStyle name="メモ 3 2 4" xfId="188"/>
     <cellStyle name="メモ 3 2 4 2" xfId="400"/>
+    <cellStyle name="メモ 3 2 4 2 2" xfId="838"/>
+    <cellStyle name="メモ 3 2 4 3" xfId="626"/>
     <cellStyle name="メモ 3 2 5" xfId="314"/>
+    <cellStyle name="メモ 3 2 5 2" xfId="752"/>
+    <cellStyle name="メモ 3 2 6" xfId="540"/>
     <cellStyle name="メモ 3 3" xfId="130"/>
     <cellStyle name="メモ 3 3 2" xfId="216"/>
     <cellStyle name="メモ 3 3 2 2" xfId="428"/>
+    <cellStyle name="メモ 3 3 2 2 2" xfId="866"/>
+    <cellStyle name="メモ 3 3 2 3" xfId="654"/>
     <cellStyle name="メモ 3 3 3" xfId="342"/>
+    <cellStyle name="メモ 3 3 3 2" xfId="780"/>
+    <cellStyle name="メモ 3 3 4" xfId="568"/>
     <cellStyle name="メモ 3 4" xfId="258"/>
     <cellStyle name="メモ 3 4 2" xfId="470"/>
+    <cellStyle name="メモ 3 4 2 2" xfId="908"/>
+    <cellStyle name="メモ 3 4 3" xfId="696"/>
     <cellStyle name="メモ 3 5" xfId="174"/>
     <cellStyle name="メモ 3 5 2" xfId="386"/>
+    <cellStyle name="メモ 3 5 2 2" xfId="824"/>
+    <cellStyle name="メモ 3 5 3" xfId="612"/>
     <cellStyle name="メモ 3 6" xfId="300"/>
+    <cellStyle name="メモ 3 6 2" xfId="738"/>
+    <cellStyle name="メモ 3 7" xfId="526"/>
     <cellStyle name="メモ 4" xfId="104"/>
     <cellStyle name="メモ 4 2" xfId="146"/>
     <cellStyle name="メモ 4 2 2" xfId="232"/>
     <cellStyle name="メモ 4 2 2 2" xfId="444"/>
+    <cellStyle name="メモ 4 2 2 2 2" xfId="882"/>
+    <cellStyle name="メモ 4 2 2 3" xfId="670"/>
     <cellStyle name="メモ 4 2 3" xfId="358"/>
+    <cellStyle name="メモ 4 2 3 2" xfId="796"/>
+    <cellStyle name="メモ 4 2 4" xfId="584"/>
     <cellStyle name="メモ 4 3" xfId="274"/>
     <cellStyle name="メモ 4 3 2" xfId="486"/>
+    <cellStyle name="メモ 4 3 2 2" xfId="924"/>
+    <cellStyle name="メモ 4 3 3" xfId="712"/>
     <cellStyle name="メモ 4 4" xfId="190"/>
     <cellStyle name="メモ 4 4 2" xfId="402"/>
+    <cellStyle name="メモ 4 4 2 2" xfId="840"/>
+    <cellStyle name="メモ 4 4 3" xfId="628"/>
     <cellStyle name="メモ 4 5" xfId="316"/>
+    <cellStyle name="メモ 4 5 2" xfId="754"/>
+    <cellStyle name="メモ 4 6" xfId="542"/>
     <cellStyle name="メモ 5" xfId="160"/>
     <cellStyle name="メモ 5 2" xfId="372"/>
+    <cellStyle name="メモ 5 2 2" xfId="810"/>
+    <cellStyle name="メモ 5 3" xfId="598"/>
     <cellStyle name="メモ 6" xfId="500"/>
     <cellStyle name="リンク セル" xfId="58" builtinId="24" customBuiltin="1"/>
     <cellStyle name="リンク セル 2" xfId="31"/>
@@ -3816,33 +5505,65 @@
     <cellStyle name="標準 5 2 2" xfId="143"/>
     <cellStyle name="標準 5 2 2 2" xfId="229"/>
     <cellStyle name="標準 5 2 2 2 2" xfId="441"/>
+    <cellStyle name="標準 5 2 2 2 2 2" xfId="879"/>
+    <cellStyle name="標準 5 2 2 2 3" xfId="667"/>
     <cellStyle name="標準 5 2 2 3" xfId="355"/>
+    <cellStyle name="標準 5 2 2 3 2" xfId="793"/>
+    <cellStyle name="標準 5 2 2 4" xfId="581"/>
     <cellStyle name="標準 5 2 3" xfId="271"/>
     <cellStyle name="標準 5 2 3 2" xfId="483"/>
+    <cellStyle name="標準 5 2 3 2 2" xfId="921"/>
+    <cellStyle name="標準 5 2 3 3" xfId="709"/>
     <cellStyle name="標準 5 2 4" xfId="187"/>
     <cellStyle name="標準 5 2 4 2" xfId="399"/>
+    <cellStyle name="標準 5 2 4 2 2" xfId="837"/>
+    <cellStyle name="標準 5 2 4 3" xfId="625"/>
     <cellStyle name="標準 5 2 5" xfId="313"/>
+    <cellStyle name="標準 5 2 5 2" xfId="751"/>
+    <cellStyle name="標準 5 2 6" xfId="539"/>
     <cellStyle name="標準 5 3" xfId="129"/>
     <cellStyle name="標準 5 3 2" xfId="215"/>
     <cellStyle name="標準 5 3 2 2" xfId="427"/>
+    <cellStyle name="標準 5 3 2 2 2" xfId="865"/>
+    <cellStyle name="標準 5 3 2 3" xfId="653"/>
     <cellStyle name="標準 5 3 3" xfId="341"/>
+    <cellStyle name="標準 5 3 3 2" xfId="779"/>
+    <cellStyle name="標準 5 3 4" xfId="567"/>
     <cellStyle name="標準 5 4" xfId="257"/>
     <cellStyle name="標準 5 4 2" xfId="469"/>
+    <cellStyle name="標準 5 4 2 2" xfId="907"/>
+    <cellStyle name="標準 5 4 3" xfId="695"/>
     <cellStyle name="標準 5 5" xfId="173"/>
     <cellStyle name="標準 5 5 2" xfId="385"/>
+    <cellStyle name="標準 5 5 2 2" xfId="823"/>
+    <cellStyle name="標準 5 5 3" xfId="611"/>
     <cellStyle name="標準 5 6" xfId="299"/>
+    <cellStyle name="標準 5 6 2" xfId="737"/>
+    <cellStyle name="標準 5 7" xfId="525"/>
     <cellStyle name="標準 6" xfId="103"/>
     <cellStyle name="標準 6 2" xfId="145"/>
     <cellStyle name="標準 6 2 2" xfId="231"/>
     <cellStyle name="標準 6 2 2 2" xfId="443"/>
+    <cellStyle name="標準 6 2 2 2 2" xfId="881"/>
+    <cellStyle name="標準 6 2 2 3" xfId="669"/>
     <cellStyle name="標準 6 2 3" xfId="357"/>
+    <cellStyle name="標準 6 2 3 2" xfId="795"/>
+    <cellStyle name="標準 6 2 4" xfId="583"/>
     <cellStyle name="標準 6 3" xfId="273"/>
     <cellStyle name="標準 6 3 2" xfId="485"/>
+    <cellStyle name="標準 6 3 2 2" xfId="923"/>
+    <cellStyle name="標準 6 3 3" xfId="711"/>
     <cellStyle name="標準 6 4" xfId="189"/>
     <cellStyle name="標準 6 4 2" xfId="401"/>
+    <cellStyle name="標準 6 4 2 2" xfId="839"/>
+    <cellStyle name="標準 6 4 3" xfId="627"/>
     <cellStyle name="標準 6 5" xfId="315"/>
+    <cellStyle name="標準 6 5 2" xfId="753"/>
+    <cellStyle name="標準 6 6" xfId="541"/>
     <cellStyle name="標準 7" xfId="159"/>
     <cellStyle name="標準 7 2" xfId="371"/>
+    <cellStyle name="標準 7 2 2" xfId="809"/>
+    <cellStyle name="標準 7 3" xfId="597"/>
     <cellStyle name="標準 8" xfId="499"/>
     <cellStyle name="良い" xfId="52" builtinId="26" customBuiltin="1"/>
     <cellStyle name="良い 2" xfId="45"/>
@@ -4144,25 +5865,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L69"/>
+  <dimension ref="A2:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="102" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="102" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="102" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="102" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18">
+    <row r="2" spans="1:12" ht="17.399999999999999">
       <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
@@ -4758,7 +6479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.5">
+    <row r="36" spans="1:8" ht="39.6">
       <c r="A36" s="24"/>
       <c r="B36" s="102" t="s">
         <v>89</v>
@@ -5135,7 +6856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="24" customFormat="1" ht="40.5">
+    <row r="59" spans="1:8" s="24" customFormat="1" ht="39.6">
       <c r="B59" s="102" t="s">
         <v>102</v>
       </c>
@@ -5250,7 +6971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="27">
+    <row r="66" spans="2:8" ht="26.4">
       <c r="B66" s="102" t="s">
         <v>74</v>
       </c>
@@ -5311,8 +7032,34 @@
       <c r="F69" s="100"/>
       <c r="G69" s="35"/>
     </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="122"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="122"/>
+      <c r="G71" s="124">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H47" r:id="rId2"/>
@@ -5329,9 +7076,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5342,9 +7089,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>